--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -71,7 +71,34 @@
     <t>114.0000</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 9:17 AM</t>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 27 July, 2025 9:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -766,38 +793,104 @@
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>148</v>
-      </c>
-      <c r="Q9" s="13"/>
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>21</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>22</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>20</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>21</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>26</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
         <v>22</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>197</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>29</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>30</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>31</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -816,10 +909,20 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -59,6 +59,18 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>DAVALINDI 10.000 I.U. 30 TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -71,6 +83,27 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>IROSPECT 20 PIECES</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
@@ -89,16 +122,13 @@
     <t>سرنجه دواء</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>4.00</t>
   </si>
   <si>
     <t>4.0000</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 9:58 AM</t>
+    <t>Sunday, 27 July, 2025 10:20 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -811,15 +841,15 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>12</v>
@@ -831,66 +861,165 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>28</v>
       </c>
-      <c t="s" r="Q10" s="12">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>197</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>29</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
         <v>30</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c t="s" r="Q11" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>31</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>32</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>33</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>34</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>17</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>33</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>37</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>414.30000000000001</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>39</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>40</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>41</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -919,10 +1048,25 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -104,6 +104,15 @@
     <t>69.3000</t>
   </si>
   <si>
+    <t>ZESTRIL 20MG 10 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
@@ -128,7 +137,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 10:20 AM</t>
+    <t>Sunday, 27 July, 2025 10:23 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -934,21 +943,21 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -960,20 +969,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -988,38 +997,71 @@
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>414.30000000000001</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>39</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>17</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>36</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>40</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
         <v>41</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c t="s" r="Q14" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>482.30000000000001</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>42</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>43</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>44</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1063,10 +1105,15 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -104,6 +104,18 @@
     <t>69.3000</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>ZESTRIL 20MG 10 TAB</t>
   </si>
   <si>
@@ -137,7 +149,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 10:23 AM</t>
+    <t>Sunday, 27 July, 2025 10:34 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -943,7 +955,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -953,11 +965,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -969,28 +981,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1002,66 +1014,99 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>482.30000000000001</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
-        <v>42</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>43</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>17</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>40</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>44</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>513.29999999999995</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>46</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>47</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>48</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1110,10 +1155,15 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -149,7 +149,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 10:34 AM</t>
+    <t>Sunday, 27 July, 2025 10:36 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -83,6 +83,15 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>IROSPECT 20 PIECES</t>
   </si>
   <si>
@@ -149,7 +158,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 10:36 AM</t>
+    <t>Sunday, 27 July, 2025 10:37 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -889,7 +898,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -899,14 +908,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -915,14 +924,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -939,7 +948,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -955,7 +964,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -965,14 +974,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -981,14 +990,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1021,21 +1030,21 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1047,20 +1056,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1075,38 +1084,71 @@
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>513.29999999999995</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>46</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>17</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>43</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>47</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
         <v>48</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c t="s" r="Q16" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>575.29999999999995</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>49</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>50</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>51</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1160,10 +1202,15 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -104,6 +104,18 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -137,18 +149,9 @@
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -158,7 +161,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 10:37 AM</t>
+    <t>Sunday, 27 July, 2025 10:47 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -964,7 +967,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -974,14 +977,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -990,14 +993,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1014,7 +1017,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1030,7 +1033,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1040,11 +1043,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1056,28 +1059,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1089,66 +1092,99 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>575.29999999999995</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>47</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>17</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>46</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>48</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
         <v>49</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c t="s" r="Q17" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>620.29999999999995</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
         <v>50</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
         <v>51</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>52</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1207,10 +1243,15 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -123,18 +123,6 @@
   </si>
   <si>
     <t>69.3000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
   </si>
   <si>
     <t>ZESTRIL 20MG 10 TAB</t>
@@ -1033,7 +1021,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1043,11 +1031,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1059,28 +1047,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1092,99 +1080,66 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="A17" s="7">
-        <v>11</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c t="s" r="C17" s="8">
+      <c r="P17" s="13">
+        <v>589.29999999999995</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>46</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
         <v>47</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c t="s" r="H17" s="9">
-        <v>17</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c t="s" r="L17" s="10">
-        <v>46</v>
-      </c>
-      <c r="M17" s="10"/>
-      <c t="s" r="N17" s="8">
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
         <v>48</v>
       </c>
-      <c r="O17" s="8"/>
-      <c t="s" r="P17" s="11">
-        <v>49</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>620.29999999999995</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
-        <v>50</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
-        <v>51</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
-        <v>52</v>
-      </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1243,15 +1198,10 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -149,7 +149,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 10:47 AM</t>
+    <t>Sunday, 27 July, 2025 10:59 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -149,7 +149,19 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 10:59 AM</t>
+    <t xml:space="preserve">شاش فازلين 10*20 سم </t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 27 July, 2025 11:00 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1108,38 +1120,71 @@
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>589.29999999999995</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>46</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
         <v>47</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>42</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>48</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>601.29999999999995</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>50</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>51</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>52</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1198,10 +1243,15 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -161,7 +161,7 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 11:00 AM</t>
+    <t>Sunday, 27 July, 2025 11:01 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -71,6 +71,21 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -92,12 +107,21 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>IROSPECT 20 PIECES</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>140.00</t>
   </si>
   <si>
@@ -125,6 +149,18 @@
     <t>69.3000</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>ZESTRIL 20MG 10 TAB</t>
   </si>
   <si>
@@ -152,16 +188,13 @@
     <t xml:space="preserve">شاش فازلين 10*20 سم </t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>12.00</t>
   </si>
   <si>
     <t>12.0000</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 11:01 AM</t>
+    <t>Sunday, 27 July, 2025 11:07 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -885,7 +918,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -894,14 +927,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -911,11 +944,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -927,14 +960,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -944,14 +977,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -960,14 +993,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -977,14 +1010,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -993,14 +1026,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1010,14 +1043,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1026,14 +1059,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1043,11 +1076,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1059,31 +1092,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1092,28 +1125,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1125,66 +1158,165 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>601.29999999999995</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
-        <v>50</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
-        <v>51</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
-        <v>52</v>
-      </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>53</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>40</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>54</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>41</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>55</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>17</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>54</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>56</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>58</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>47</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>54</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>59</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>734.63999999999999</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>61</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>62</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>63</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1248,10 +1380,25 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -71,6 +71,30 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>DIASTOP SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>DIVIDO 75MG 30 DUAL RELEASE CAPS.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -83,9 +107,6 @@
     <t>15.8400</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -131,9 +152,6 @@
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
@@ -194,7 +212,7 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 11:07 AM</t>
+    <t>Sunday, 27 July, 2025 11:16 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -901,7 +919,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -911,14 +929,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -927,14 +945,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -944,14 +962,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -960,14 +978,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -984,7 +1002,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1017,7 +1035,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1033,7 +1051,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1050,7 +1068,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1083,7 +1101,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1099,7 +1117,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1116,7 +1134,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1132,7 +1150,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1142,11 +1160,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1158,14 +1176,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1175,14 +1193,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1191,28 +1209,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1224,7 +1242,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1237,15 +1255,15 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1257,66 +1275,132 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>734.63999999999999</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>61</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>17</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>60</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>62</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
         <v>63</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c t="s" r="Q21" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>64</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>53</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>60</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>65</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>811.16999999999996</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>67</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>68</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>69</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1395,10 +1479,20 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -212,7 +212,7 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 11:16 AM</t>
+    <t>Sunday, 27 July, 2025 11:22 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -179,6 +179,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>ZESTRIL 20MG 10 TAB</t>
   </si>
   <si>
@@ -212,7 +224,7 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 11:22 AM</t>
+    <t>Sunday, 27 July, 2025 11:32 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1249,7 +1261,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1259,11 +1271,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1275,28 +1287,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1308,28 +1320,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1341,66 +1353,99 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>811.16999999999996</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
-        <v>67</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>68</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>53</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>64</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
         <v>69</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>832.16999999999996</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>71</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>72</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>73</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1489,10 +1534,15 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -224,7 +224,7 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 11:32 AM</t>
+    <t>Sunday, 27 July, 2025 11:34 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -71,6 +71,15 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>DIASTOP SUSP. 60ML</t>
   </si>
   <si>
@@ -179,6 +188,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">REBIRTH WHITENING  CREAM</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -201,9 +222,6 @@
   </si>
   <si>
     <t>حنه جلوري سوده 1 كيس</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>سرنجه دواء</t>
@@ -964,7 +982,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -974,14 +992,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -990,14 +1008,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1007,14 +1025,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1023,14 +1041,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1040,14 +1058,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1056,14 +1074,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1096,7 +1114,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1106,14 +1124,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1122,14 +1140,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1146,7 +1164,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1162,7 +1180,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1179,7 +1197,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1195,7 +1213,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1212,7 +1230,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1228,7 +1246,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1238,14 +1256,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1254,14 +1272,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1271,11 +1289,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1287,7 +1305,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1300,7 +1318,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1327,21 +1345,21 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1353,7 +1371,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1366,15 +1384,15 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1386,66 +1404,132 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>832.16999999999996</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
         <v>71</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>17</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>60</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
         <v>72</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
         <v>73</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c t="s" r="Q24" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>74</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>56</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>60</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>75</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>1051.1700000000001</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>77</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>78</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>79</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1539,10 +1623,20 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -167,6 +167,18 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -224,6 +236,15 @@
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -239,10 +260,7 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>Sunday, 27 July, 2025 11:34 AM</t>
+    <t>Sunday, 27 July, 2025 11:37 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1246,7 +1264,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1256,14 +1274,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1272,14 +1290,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1296,7 +1314,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1312,13 +1330,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1345,13 +1363,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1378,7 +1396,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1388,11 +1406,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1404,28 +1422,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1437,28 +1455,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1470,66 +1488,132 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>78</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>17</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>64</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>79</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>1051.1700000000001</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>81</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>60</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>64</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>82</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>77</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
-        <v>78</v>
-      </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
-        <v>79</v>
-      </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c t="s" r="Q27" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>1129.1700000000001</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>83</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>84</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>85</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1633,10 +1717,20 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -233,6 +233,18 @@
     <t>68.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
@@ -260,7 +272,7 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 11:37 AM</t>
+    <t>Sunday, 27 July, 2025 11:43 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1462,7 +1474,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1472,14 +1484,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1488,14 +1500,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1505,14 +1517,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1521,7 +1533,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1538,14 +1550,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1554,14 +1566,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1571,49 +1583,82 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>1129.1700000000001</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
-        <v>83</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
-        <v>84</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>85</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>60</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>64</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>86</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>1135.1700000000001</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>87</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>88</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>89</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1727,10 +1772,15 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -272,7 +272,7 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 11:43 AM</t>
+    <t>Sunday, 27 July, 2025 11:55 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -165,6 +165,15 @@
   </si>
   <si>
     <t>45.0000</t>
+  </si>
+  <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
   </si>
   <si>
     <t>NEUROTON 6 AMP</t>
@@ -1276,7 +1285,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1286,11 +1295,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1302,14 +1311,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1326,7 +1335,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1342,7 +1351,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1352,14 +1361,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1368,28 +1377,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1401,28 +1410,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1434,14 +1443,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1480,7 +1489,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1491,7 +1500,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1500,31 +1509,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1533,31 +1542,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1579,7 +1588,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1590,7 +1599,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1606,13 +1615,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1620,45 +1629,78 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>1135.1700000000001</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
-        <v>87</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>88</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>63</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>67</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
         <v>89</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1184.1700000000001</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>90</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>91</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>92</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1777,10 +1819,15 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -116,6 +116,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -137,6 +146,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -281,7 +299,7 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 11:55 AM</t>
+    <t>Sunday, 27 July, 2025 12:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1120,7 +1138,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1130,11 +1148,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1146,14 +1164,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1186,7 +1204,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1196,14 +1214,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1212,7 +1230,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1229,11 +1247,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>30</v>
@@ -1245,14 +1263,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1269,7 +1287,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1285,7 +1303,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1302,7 +1320,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1318,7 +1336,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1328,11 +1346,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1344,7 +1362,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1361,14 +1379,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1377,14 +1395,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1394,11 +1412,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1410,31 +1428,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1443,14 +1461,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1460,11 +1478,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1476,7 +1494,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1489,15 +1507,15 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1509,20 +1527,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1533,7 +1551,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1542,28 +1560,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1575,7 +1593,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1588,18 +1606,18 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1608,28 +1626,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1648,13 +1666,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1662,45 +1680,111 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1184.1700000000001</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>91</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>17</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>73</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>92</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>94</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>69</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>73</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>95</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
         <v>90</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
-        <v>91</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
-        <v>92</v>
-      </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1359.1600000000001</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>96</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>97</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>98</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1824,10 +1908,20 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -227,6 +227,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">REBIRTH WHITENING  CREAM</t>
   </si>
   <si>
@@ -299,7 +311,7 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 12:05 PM</t>
+    <t>Sunday, 27 July, 2025 12:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1501,13 +1513,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1518,7 +1530,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1534,13 +1546,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1567,7 +1579,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1577,11 +1589,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1593,7 +1605,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1606,18 +1618,18 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>86</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1633,24 +1645,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1659,31 +1671,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1692,7 +1704,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1705,18 +1717,18 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1725,66 +1737,99 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1359.1600000000001</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>96</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
-        <v>97</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>98</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>69</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>77</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>99</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1382.1600000000001</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>100</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>101</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>102</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1918,10 +1963,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>LACRITEARS EYE DROPS 15 ML</t>
   </si>
   <si>
@@ -272,6 +281,18 @@
     <t>68.0000</t>
   </si>
   <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -311,7 +332,7 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 12:06 PM</t>
+    <t>Sunday, 27 July, 2025 12:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1414,7 +1435,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1424,11 +1445,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1440,14 +1461,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1464,7 +1485,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1480,7 +1501,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1490,14 +1511,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1506,14 +1527,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1523,14 +1544,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1539,31 +1560,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1572,28 +1593,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1605,14 +1626,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1651,7 +1672,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1662,7 +1683,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1671,28 +1692,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1704,7 +1725,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1717,18 +1738,18 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1737,28 +1758,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1770,66 +1791,132 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1382.1600000000001</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>100</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>102</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>17</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>80</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>103</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>105</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>72</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>80</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>106</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
         <v>101</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
-        <v>102</v>
-      </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c t="s" r="Q34" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1423.1600000000001</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>107</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>108</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>109</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1968,10 +2055,20 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -248,6 +248,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">REBIRTH WHITENING  CREAM</t>
   </si>
   <si>
@@ -260,6 +269,15 @@
     <t>175.0000</t>
   </si>
   <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -272,6 +290,12 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
     <t>ZESTRIL 20MG 10 TAB</t>
   </si>
   <si>
@@ -332,7 +356,7 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 12:20 PM</t>
+    <t>Sunday, 27 July, 2025 12:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1600,21 +1624,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1626,28 +1650,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1659,7 +1683,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1676,11 +1700,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1692,28 +1716,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1725,31 +1749,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1758,28 +1782,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1791,20 +1815,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1815,7 +1839,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1837,7 +1861,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1848,7 +1872,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1857,66 +1881,165 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1423.1600000000001</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>107</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>17</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>83</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>108</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>109</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c t="s" r="Q35" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>110</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>17</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>83</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>111</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>113</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>72</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>83</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>114</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1727.1600000000001</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>115</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>116</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>117</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2065,10 +2188,25 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -356,7 +356,7 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 12:29 PM</t>
+    <t>Sunday, 27 July, 2025 12:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -59,6 +59,18 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>DAVALINDI 10.000 I.U. 30 TABS.</t>
   </si>
   <si>
@@ -227,9 +239,6 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -296,6 +305,18 @@
     <t>46.00</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8505:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>ZESTRIL 20MG 10 TAB</t>
   </si>
   <si>
@@ -335,9 +356,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>12.0000</t>
   </si>
   <si>
@@ -356,7 +374,7 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 12:41 PM</t>
+    <t>Sunday, 27 July, 2025 12:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1063,7 +1081,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1073,11 +1091,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>12</v>
@@ -1089,14 +1107,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1106,11 +1124,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -1122,14 +1140,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1146,7 +1164,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1155,14 +1173,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1172,14 +1190,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>34</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1195,7 +1213,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1205,14 +1223,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1221,14 +1239,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1261,7 +1279,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1271,11 +1289,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1287,14 +1305,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1304,14 +1322,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1320,14 +1338,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1344,7 +1362,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1360,7 +1378,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1370,14 +1388,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1386,14 +1404,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1403,14 +1421,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1419,14 +1437,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1436,11 +1454,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1452,7 +1470,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1469,11 +1487,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1485,14 +1503,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1525,7 +1543,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1535,14 +1553,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1551,14 +1569,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1575,7 +1593,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1591,7 +1609,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1601,14 +1619,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1617,14 +1635,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1641,7 +1659,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1657,21 +1675,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1683,20 +1701,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1723,7 +1741,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1733,11 +1751,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1749,14 +1767,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1770,10 +1788,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1782,14 +1800,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1799,14 +1817,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1828,7 +1846,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1855,13 +1873,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1872,7 +1890,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1881,28 +1899,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1914,31 +1932,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>90</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1947,28 +1965,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -1980,66 +1998,132 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1727.1600000000001</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>116</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>21</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>86</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>117</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>119</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>17</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>86</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>120</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
         <v>115</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
-        <v>116</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
-        <v>117</v>
-      </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c t="s" r="Q39" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1753.1600000000001</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>121</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>122</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>123</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2203,10 +2287,20 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -68,7 +68,10 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>24.0000</t>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>DAVALINDI 10.000 I.U. 30 TABS.</t>
@@ -314,7 +317,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
   </si>
   <si>
     <t>ZESTRIL 20MG 10 TAB</t>
@@ -347,9 +350,6 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
@@ -365,16 +365,13 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">شاش فازلين 10*20 سم </t>
   </si>
   <si>
     <t>12.00</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 12:42 PM</t>
+    <t>Sunday, 27 July, 2025 12:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1065,7 +1062,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1074,14 +1071,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1091,11 +1088,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>12</v>
@@ -1107,14 +1104,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1124,11 +1121,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -1140,14 +1137,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1157,11 +1154,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1173,14 +1170,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1190,14 +1187,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1206,14 +1203,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1223,14 +1220,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1239,14 +1236,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1256,11 +1253,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1272,14 +1269,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1289,11 +1286,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1305,14 +1302,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1322,11 +1319,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1338,14 +1335,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1355,14 +1352,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1371,14 +1368,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1388,14 +1385,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1404,14 +1401,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1421,14 +1418,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1437,14 +1434,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1454,11 +1451,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1470,7 +1467,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1487,11 +1484,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1503,7 +1500,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1520,11 +1517,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1536,14 +1533,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1553,11 +1550,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1569,7 +1566,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1586,14 +1583,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1602,7 +1599,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1619,11 +1616,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1635,14 +1632,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1652,14 +1649,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1668,14 +1665,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1685,11 +1682,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1701,28 +1698,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1734,14 +1731,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1751,11 +1748,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1767,14 +1764,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1784,11 +1781,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1800,14 +1797,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1817,14 +1814,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1833,14 +1830,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1850,14 +1847,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1866,14 +1863,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1883,11 +1880,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1899,28 +1896,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1932,31 +1929,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>112</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1972,21 +1969,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2005,24 +2002,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2038,13 +2035,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2052,7 +2049,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2064,7 +2061,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2077,11 +2074,11 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2093,13 +2090,13 @@
     </row>
     <row r="40" ht="24.75" customHeight="1">
       <c r="P40" s="13">
-        <v>1753.1600000000001</v>
+        <v>1779.1600000000001</v>
       </c>
       <c r="Q40" s="13"/>
     </row>
     <row r="41" ht="16.5" customHeight="1">
       <c t="s" r="A41" s="14">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -2107,13 +2104,13 @@
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c t="s" r="G41" s="15">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
       <c r="J41" s="16"/>
       <c t="s" r="K41" s="17">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -371,7 +371,7 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 12:49 PM</t>
+    <t>Sunday, 27 July, 2025 1:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -74,6 +74,21 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DAVALINDI 10.000 I.U. 30 TABS.</t>
   </si>
   <si>
@@ -114,9 +129,6 @@
   </si>
   <si>
     <t>46.5300</t>
-  </si>
-  <si>
-    <t>0:1</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
@@ -1095,7 +1107,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1104,14 +1116,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1121,11 +1133,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -1137,14 +1149,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1154,11 +1166,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1170,14 +1182,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1187,14 +1199,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1227,7 +1239,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1243,7 +1255,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1253,14 +1265,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1269,14 +1281,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1309,7 +1321,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1319,11 +1331,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1335,14 +1347,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1352,14 +1364,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1368,14 +1380,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1392,7 +1404,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1408,7 +1420,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1418,14 +1430,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1434,14 +1446,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1451,14 +1463,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1467,14 +1479,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1484,11 +1496,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1500,7 +1512,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1517,11 +1529,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1533,14 +1545,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1573,7 +1585,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1583,14 +1595,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1599,14 +1611,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1616,14 +1628,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1632,14 +1644,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1656,7 +1668,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1672,7 +1684,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1682,14 +1694,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1698,20 +1710,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1738,21 +1750,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1764,14 +1776,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1804,7 +1816,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1814,14 +1826,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1830,14 +1842,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1847,14 +1859,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1870,7 +1882,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1880,14 +1892,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1896,20 +1908,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1936,24 +1948,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1962,31 +1974,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1995,31 +2007,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2028,31 +2040,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2061,66 +2073,99 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1779.1600000000001</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>120</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
-        <v>121</v>
-      </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>122</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>17</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>91</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>123</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1806.1600000000001</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>124</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>125</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>126</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2294,10 +2339,15 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -383,7 +383,7 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 1:01 PM</t>
+    <t>Sunday, 27 July, 2025 1:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -143,6 +143,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -383,7 +392,7 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 1:02 PM</t>
+    <t>Sunday, 27 July, 2025 1:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1288,7 +1297,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1321,7 +1330,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1331,11 +1340,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1347,14 +1356,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1387,7 +1396,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1404,7 +1413,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1420,7 +1429,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1430,11 +1439,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>25</v>
@@ -1446,14 +1455,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1486,7 +1495,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1503,7 +1512,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1519,7 +1528,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1585,7 +1594,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1595,11 +1604,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1611,14 +1620,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1635,7 +1644,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1651,7 +1660,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1668,7 +1677,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1684,7 +1693,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1694,14 +1703,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1710,14 +1719,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1734,7 +1743,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1750,21 +1759,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1776,7 +1785,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1789,7 +1798,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1816,7 +1825,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1826,11 +1835,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1842,14 +1851,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1863,10 +1872,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1875,14 +1884,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1896,10 +1905,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1908,14 +1917,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1932,7 +1941,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1948,21 +1957,21 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1974,20 +1983,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -1998,7 +2007,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2014,24 +2023,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2040,31 +2049,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2073,7 +2082,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2086,18 +2095,18 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2106,66 +2115,99 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1806.1600000000001</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>124</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>125</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>17</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>94</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>126</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1858.1600000000001</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>127</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>128</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>129</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2344,10 +2386,15 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -392,7 +392,7 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 1:03 PM</t>
+    <t>Sunday, 27 July, 2025 1:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -173,6 +173,21 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>FORADIL12 MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>89.6000</t>
+  </si>
+  <si>
     <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
   </si>
   <si>
@@ -293,9 +308,6 @@
     <t xml:space="preserve">REBIRTH WHITENING  CREAM</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>175.00</t>
   </si>
   <si>
@@ -392,7 +404,7 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 1:58 PM</t>
+    <t>Sunday, 27 July, 2025 3:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1396,24 +1408,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1422,14 +1434,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1439,14 +1451,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1455,14 +1467,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1472,11 +1484,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>25</v>
@@ -1488,14 +1500,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1505,11 +1517,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>25</v>
@@ -1521,14 +1533,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1538,14 +1550,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1554,14 +1566,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1571,11 +1583,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1587,7 +1599,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1604,11 +1616,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1620,14 +1632,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1637,11 +1649,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1653,14 +1665,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1670,14 +1682,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1686,14 +1698,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1703,14 +1715,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1719,14 +1731,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1736,14 +1748,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1752,14 +1764,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1769,14 +1781,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1785,28 +1797,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1818,7 +1830,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1831,15 +1843,15 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1851,14 +1863,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1891,7 +1903,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1901,14 +1913,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1917,14 +1929,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1934,14 +1946,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1957,7 +1969,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1967,14 +1979,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1983,20 +1995,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2023,24 +2035,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2049,31 +2061,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2082,31 +2094,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>101</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2115,7 +2127,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2128,18 +2140,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2148,66 +2160,99 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1858.1600000000001</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>127</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
-        <v>128</v>
-      </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>129</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>17</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>56</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>130</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1947.76</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>131</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>132</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>133</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2391,10 +2436,15 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -74,6 +74,24 @@
     <t>2:0</t>
   </si>
   <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
@@ -86,18 +104,21 @@
     <t>27.0000</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
   </si>
   <si>
     <t>DAVALINDI 10.000 I.U. 30 TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>78.0000</t>
   </si>
   <si>
@@ -110,6 +131,18 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
     <t>DIASTOP SUSP. 60ML</t>
   </si>
   <si>
@@ -164,9 +197,6 @@
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>114.00</t>
   </si>
   <si>
@@ -176,12 +206,6 @@
     <t>FORADIL12 MG 60 CAPS</t>
   </si>
   <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>560.00</t>
   </si>
   <si>
@@ -296,6 +320,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>PARAGESIC 500MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>RAMIXOLE 1 MG 30 TAB.</t>
   </si>
   <si>
@@ -362,6 +398,18 @@
     <t>68.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>بودره نلج اكياس</t>
   </si>
   <si>
@@ -374,6 +422,18 @@
     <t>5.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>80:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -392,6 +452,12 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -404,7 +470,16 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 3:21 PM</t>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>محلول رينجر</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 27 July, 2025 3:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1117,18 +1192,18 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1137,14 +1212,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1154,14 +1229,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1170,14 +1245,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1187,14 +1262,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1203,14 +1278,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1220,11 +1295,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1236,14 +1311,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1260,7 +1335,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1293,7 +1368,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1309,7 +1384,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1342,7 +1417,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1352,14 +1427,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1368,14 +1443,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1385,14 +1460,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1401,31 +1476,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1434,14 +1509,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1451,11 +1526,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1467,14 +1542,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1484,14 +1559,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1500,31 +1575,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1533,14 +1608,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1550,14 +1625,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1566,14 +1641,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1583,14 +1658,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1599,14 +1674,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1616,14 +1691,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1632,14 +1707,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1649,14 +1724,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1665,14 +1740,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1682,11 +1757,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1698,7 +1773,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1715,14 +1790,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1731,14 +1806,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1748,11 +1823,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1764,14 +1839,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1781,14 +1856,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1797,14 +1872,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1814,14 +1889,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1830,28 +1905,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1863,14 +1938,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1880,14 +1955,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1896,14 +1971,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1913,11 +1988,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1929,14 +2004,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1946,14 +2021,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1969,24 +2044,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1995,14 +2070,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2012,11 +2087,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2028,28 +2103,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2061,31 +2136,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2094,31 +2169,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2127,31 +2202,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2160,28 +2235,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2193,66 +2268,363 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1947.76</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>137</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>138</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>23</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>139</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>141</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>22</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>23</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>142</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>144</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>48</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>23</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>81</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>145</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>22</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>23</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>124</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>147</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>22</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>23</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>142</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>149</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>22</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>23</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>150</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>151</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>17</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>23</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>152</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>153</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>22</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>23</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
         <v>131</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>132</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
-        <v>133</v>
-      </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c t="s" r="Q50" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>154</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>12</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>23</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>18</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2123.2649999999999</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>156</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>157</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>158</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2441,10 +2813,55 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -257,195 +257,198 @@
     <t>45.00</t>
   </si>
   <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>PARAGESIC 500MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REBIRTH WHITENING  CREAM</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8505:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>ZESTRIL 20MG 10 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>80:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
     <t>45.0000</t>
   </si>
   <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LACRITEARS EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>69.3000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PARAGESIC 500MG 5 SUPP.</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>RAMIXOLE 1 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REBIRTH WHITENING  CREAM</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t>SINEMET 25/250 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8505:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>ZESTRIL 20MG 10 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>29:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>بودره نلج اكياس</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>80:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>حنه جلوري سوده 1 كيس</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -479,7 +482,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 3:28 PM</t>
+    <t>Sunday, 27 July, 2025 3:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1747,7 +1750,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1764,7 +1767,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2388,7 +2391,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2400,7 +2403,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2421,7 +2424,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>117</v>
@@ -2433,7 +2436,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2454,7 +2457,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2466,7 +2469,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2483,7 +2486,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2499,7 +2502,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2516,11 +2519,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2532,7 +2535,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2565,7 +2568,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2586,7 +2589,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2594,13 +2597,13 @@
     </row>
     <row r="52" ht="25.5" customHeight="1">
       <c r="P52" s="13">
-        <v>2123.2649999999999</v>
+        <v>2168.2649999999999</v>
       </c>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
       <c t="s" r="A53" s="14">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -2608,13 +2611,13 @@
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
       <c t="s" r="G53" s="15">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
       <c r="J53" s="16"/>
       <c t="s" r="K53" s="17">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L53" s="17"/>
       <c r="M53" s="17"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -482,7 +482,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 3:34 PM</t>
+    <t>Sunday, 27 July, 2025 3:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -104,6 +104,24 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>CERELAC تمر وقمح ولبن</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>CRYPTOPER 100MG/5ML PD. FOR ORAL SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -350,6 +368,15 @@
     <t>175.0000</t>
   </si>
   <si>
+    <t>SANSOVIT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>SINEMET 25/250 MG 20 TABS.</t>
   </si>
   <si>
@@ -380,91 +407,94 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8505:0</t>
+    <t>8503:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>ZESTRIL 20MG 10 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>80:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>4.0000</t>
-  </si>
-  <si>
-    <t>ZESTRIL 20MG 10 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>29:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>بودره نلج اكياس</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>80:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>حنه جلوري سوده 1 كيس</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>4.00</t>
   </si>
   <si>
     <t xml:space="preserve">شاش فازلين 10*20 سم </t>
@@ -1255,24 +1285,24 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1281,7 +1311,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1298,7 +1328,7 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
@@ -1321,7 +1351,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1331,14 +1361,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1347,14 +1377,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1364,14 +1394,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1380,7 +1410,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1397,11 +1427,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1413,14 +1443,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1430,11 +1460,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>26</v>
@@ -1446,14 +1476,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1463,14 +1493,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1479,14 +1509,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1496,14 +1526,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1512,14 +1542,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1536,7 +1566,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1552,7 +1582,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1585,13 +1615,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1602,7 +1632,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1618,7 +1648,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1651,13 +1681,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1684,7 +1714,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1694,14 +1724,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1710,7 +1740,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1727,11 +1757,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>26</v>
@@ -1743,14 +1773,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1767,7 +1797,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1783,7 +1813,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1800,7 +1830,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1816,7 +1846,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1833,7 +1863,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1849,7 +1879,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1859,11 +1889,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1875,7 +1905,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1892,14 +1922,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1908,14 +1938,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1948,7 +1978,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1958,14 +1988,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1974,14 +2004,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1991,11 +2021,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2007,14 +2037,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2024,14 +2054,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2040,20 +2070,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2080,7 +2110,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2113,21 +2143,21 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2139,14 +2169,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2156,14 +2186,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2179,7 +2209,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2189,14 +2219,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2205,14 +2235,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2245,24 +2275,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2271,31 +2301,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2304,28 +2334,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2337,14 +2367,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2354,14 +2384,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2370,14 +2400,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2387,7 +2417,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2410,7 +2440,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2420,14 +2450,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2436,7 +2466,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2453,14 +2483,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2469,14 +2499,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2486,11 +2516,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2502,14 +2532,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2519,14 +2549,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2535,7 +2565,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2552,11 +2582,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2568,14 +2598,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2585,49 +2615,148 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>162</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>17</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>23</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>163</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
         <v>156</v>
       </c>
-      <c t="s" r="Q51" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2168.2649999999999</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>157</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
-        <v>158</v>
-      </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
-        <v>159</v>
-      </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c t="s" r="Q52" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>164</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>22</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>23</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>140</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>165</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>12</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>23</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>18</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2366.2649999999999</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>167</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>168</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>169</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2861,10 +2990,25 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -512,7 +512,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 3:44 PM</t>
+    <t>Sunday, 27 July, 2025 3:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -428,91 +428,100 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>29:0</t>
+    <t>28:0</t>
   </si>
   <si>
     <t>15.00</t>
   </si>
   <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>80:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش فازلين 10*20 سم </t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>بودره نلج اكياس</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>80:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>حنه جلوري سوده 1 كيس</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش فازلين 10*20 سم </t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 3:45 PM</t>
+    <t>Sunday, 27 July, 2025 4:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2388,10 +2397,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2400,14 +2409,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2417,11 +2426,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2433,14 +2442,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2450,11 +2459,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2466,7 +2475,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2483,11 +2492,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2499,7 +2508,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2520,7 +2529,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2532,7 +2541,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2553,7 +2562,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>126</v>
@@ -2565,7 +2574,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2582,11 +2591,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2598,7 +2607,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2615,11 +2624,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2631,7 +2640,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2648,11 +2657,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2664,14 +2673,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2681,11 +2690,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2697,14 +2706,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2714,49 +2723,82 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2366.2649999999999</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
-        <v>167</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
         <v>168</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>12</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>23</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>18</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
         <v>169</v>
       </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c t="s" r="Q55" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2431.2649999999999</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>170</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>171</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>172</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3005,10 +3047,15 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -104,6 +104,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>CERELAC تمر وقمح ولبن</t>
   </si>
   <si>
@@ -185,13 +194,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>8:1</t>
+    <t>8:0</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>15.8400</t>
+    <t>31.6800</t>
   </si>
   <si>
     <t>ELICA-M CREAM 30 GRAM</t>
@@ -230,6 +239,15 @@
     <t>89.6000</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
   </si>
   <si>
@@ -290,12 +308,6 @@
     <t>LACRITEARS EYE DROPS 15 ML</t>
   </si>
   <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -521,7 +533,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 4:35 PM</t>
+    <t>Sunday, 27 July, 2025 4:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1300,7 +1312,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1333,7 +1345,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1360,7 +1372,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1370,14 +1382,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1386,14 +1398,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1403,14 +1415,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1419,7 +1431,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1436,7 +1448,7 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
@@ -1459,7 +1471,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1469,14 +1481,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1485,14 +1497,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1509,7 +1521,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1525,7 +1537,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1535,14 +1547,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1551,14 +1563,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1568,11 +1580,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>26</v>
@@ -1584,14 +1596,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1608,7 +1620,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1624,7 +1636,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1657,7 +1669,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1690,13 +1702,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1707,7 +1719,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1723,13 +1735,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1740,7 +1752,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1756,7 +1768,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1773,7 +1785,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1789,7 +1801,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1799,14 +1811,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1815,7 +1827,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1832,11 +1844,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>26</v>
@@ -1848,14 +1860,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1872,7 +1884,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1888,7 +1900,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1905,7 +1917,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1921,7 +1933,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1938,7 +1950,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1954,7 +1966,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1964,11 +1976,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1980,7 +1992,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1997,14 +2009,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2013,14 +2025,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2030,11 +2042,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2046,14 +2058,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2063,14 +2075,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2079,14 +2091,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2096,11 +2108,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2112,14 +2124,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2129,14 +2141,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2145,28 +2157,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2178,14 +2190,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2195,11 +2207,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2211,7 +2223,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2224,15 +2236,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2244,14 +2256,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2261,11 +2273,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2277,14 +2289,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2294,14 +2306,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2310,14 +2322,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2327,14 +2339,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2343,14 +2355,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2360,14 +2372,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2376,31 +2388,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2409,28 +2421,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2442,14 +2454,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2459,14 +2471,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2475,14 +2487,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2492,14 +2504,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2508,14 +2520,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2525,11 +2537,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2541,7 +2553,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2558,14 +2570,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>126</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2581,7 +2593,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2591,7 +2603,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2624,14 +2636,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2640,14 +2652,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2657,11 +2669,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2673,14 +2685,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2690,11 +2702,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2706,14 +2718,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2723,11 +2735,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2739,14 +2751,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2756,7 +2768,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -2767,38 +2779,104 @@
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2431.2649999999999</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
         <v>170</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>22</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>23</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>144</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
         <v>171</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c t="s" r="Q56" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
         <v>172</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>12</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>23</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>18</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2518.105</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>174</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>175</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>176</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3052,10 +3130,20 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -59,6 +59,18 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -71,9 +83,6 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">ANTODINE20    6 AMP</t>
   </si>
   <si>
@@ -122,6 +131,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>CRYPTOPER 100MG/5ML PD. FOR ORAL SUSP. 60ML</t>
   </si>
   <si>
@@ -308,6 +326,15 @@
     <t>LACRITEARS EYE DROPS 15 ML</t>
   </si>
   <si>
+    <t>LUTOFOLONE 2 AMP.</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -488,30 +515,33 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش فازلين 10*20 سم </t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
     <t>12.0000</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش فازلين 10*20 سم </t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -533,7 +563,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 4:47 PM</t>
+    <t>Sunday, 27 July, 2025 4:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1224,7 +1254,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1233,31 +1263,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1266,31 +1296,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1299,14 +1329,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1323,7 +1353,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1339,13 +1369,13 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1372,13 +1402,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1405,7 +1435,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1415,14 +1445,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1431,14 +1461,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1448,7 +1478,7 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
@@ -1471,7 +1501,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1481,14 +1511,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1497,14 +1527,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1514,14 +1544,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1530,14 +1560,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1547,11 +1577,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1563,14 +1593,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1580,14 +1610,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1596,14 +1626,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1613,14 +1643,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1629,14 +1659,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1646,14 +1676,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1662,14 +1692,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1686,7 +1716,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1702,7 +1732,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1735,13 +1765,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1752,7 +1782,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1768,7 +1798,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1801,13 +1831,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1818,7 +1848,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1834,7 +1864,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1851,7 +1881,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1867,7 +1897,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1877,14 +1907,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1893,14 +1923,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1910,14 +1940,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1926,14 +1956,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1950,7 +1980,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1966,7 +1996,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1983,7 +2013,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1999,7 +2029,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2009,14 +2039,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2025,14 +2055,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2042,11 +2072,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2058,7 +2088,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2075,14 +2105,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2091,14 +2121,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2108,11 +2138,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2124,14 +2154,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2141,14 +2171,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2157,14 +2187,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2174,14 +2204,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2190,14 +2220,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2207,11 +2237,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2223,31 +2253,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2256,14 +2286,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2296,7 +2326,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2329,21 +2359,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2355,14 +2385,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2372,14 +2402,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2395,7 +2425,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2405,14 +2435,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2421,14 +2451,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2461,24 +2491,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2487,31 +2517,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2520,28 +2550,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2553,31 +2583,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2586,24 +2616,24 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2626,24 +2656,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2652,31 +2682,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2685,28 +2715,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2718,31 +2748,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2751,28 +2781,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2784,28 +2814,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2817,66 +2847,165 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2518.105</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>174</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
-        <v>175</v>
-      </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
-        <v>176</v>
-      </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>177</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>63</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>26</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>178</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>180</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>25</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>26</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>153</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>182</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>12</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>26</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>22</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>2779.105</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>184</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>185</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>186</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3140,10 +3269,25 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -122,6 +122,18 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>CAPOZIDE 50/25MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>CERELAC تمر وقمح ولبن</t>
   </si>
   <si>
@@ -152,9 +164,6 @@
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>142.50</t>
   </si>
   <si>
@@ -563,7 +572,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 4:53 PM</t>
+    <t>Sunday, 27 July, 2025 5:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1402,24 +1411,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1428,28 +1437,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1461,14 +1470,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1478,11 +1487,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1494,14 +1503,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1518,7 +1527,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1534,7 +1543,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1544,14 +1553,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1560,7 +1569,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1577,7 +1586,7 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
@@ -1600,7 +1609,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1610,14 +1619,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1626,14 +1635,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1650,7 +1659,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1666,7 +1675,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1676,14 +1685,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1692,14 +1701,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1709,14 +1718,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1725,14 +1734,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1749,7 +1758,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1765,7 +1774,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1798,7 +1807,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1831,13 +1840,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1848,7 +1857,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1864,13 +1873,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1881,7 +1890,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1897,7 +1906,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1930,7 +1939,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1947,7 +1956,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1963,7 +1972,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1973,11 +1982,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>29</v>
@@ -1989,14 +1998,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2029,7 +2038,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2046,7 +2055,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2062,7 +2071,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2079,7 +2088,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2105,11 +2114,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2121,7 +2130,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2138,11 +2147,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2161,7 +2170,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2171,11 +2180,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2187,14 +2196,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2211,7 +2220,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2227,7 +2236,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2244,7 +2253,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2260,7 +2269,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2270,14 +2279,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2286,14 +2295,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2303,14 +2312,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2319,14 +2328,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2359,13 +2368,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2398,7 +2407,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2458,7 +2467,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2468,11 +2477,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2484,14 +2493,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2505,10 +2514,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2517,14 +2526,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2538,10 +2547,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2550,14 +2559,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2574,7 +2583,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2590,24 +2599,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2637,10 +2646,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2649,14 +2658,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2666,11 +2675,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2682,14 +2691,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2706,7 +2715,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2722,7 +2731,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2732,14 +2741,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2748,14 +2757,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2765,14 +2774,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2781,7 +2790,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2798,14 +2807,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2814,7 +2823,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2831,7 +2840,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -2854,7 +2863,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2887,7 +2896,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2920,7 +2929,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2930,11 +2939,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2946,14 +2955,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2963,49 +2972,82 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>2779.105</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>184</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>185</v>
       </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>12</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>26</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>22</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
         <v>186</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c t="s" r="Q61" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2809.7950000000001</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>187</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>188</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>189</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3284,10 +3326,15 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -71,6 +71,18 @@
     <t>87.0000</t>
   </si>
   <si>
+    <t>AMRIZOLE-N 5 VAG. SUPP</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>10.5000</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -86,9 +98,6 @@
     <t xml:space="preserve">ANTODINE20    6 AMP</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -452,6 +461,15 @@
     <t>46.00</t>
   </si>
   <si>
+    <t>UNIFUNGI 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -572,7 +590,10 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 5:18 PM</t>
+    <t>ملك العود مسك</t>
+  </si>
+  <si>
+    <t>Sunday, 27 July, 2025 5:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1296,7 +1317,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1318,18 +1339,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1338,31 +1359,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1371,14 +1392,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1395,7 +1416,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1411,7 +1432,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1421,14 +1442,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1437,20 +1458,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1461,7 +1482,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1477,13 +1498,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1510,7 +1531,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1543,7 +1564,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1560,7 +1581,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1576,7 +1597,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1586,14 +1607,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1602,14 +1623,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1619,7 +1640,7 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
@@ -1642,7 +1663,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1652,14 +1673,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1668,14 +1689,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1692,7 +1713,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1708,7 +1729,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1718,14 +1739,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1734,14 +1755,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1751,14 +1772,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1767,14 +1788,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1791,7 +1812,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1807,7 +1828,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1840,7 +1861,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1873,13 +1894,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1890,7 +1911,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1906,13 +1927,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1923,7 +1944,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1972,7 +1993,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1989,7 +2010,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2005,7 +2026,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2015,14 +2036,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2031,14 +2052,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2055,7 +2076,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2071,7 +2092,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2088,7 +2109,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2104,7 +2125,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2121,7 +2142,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2147,11 +2168,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2163,7 +2184,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2180,11 +2201,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2203,7 +2224,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2213,11 +2234,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2229,14 +2250,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2253,7 +2274,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2269,7 +2290,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2286,7 +2307,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2302,7 +2323,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2312,14 +2333,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2328,14 +2349,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2345,14 +2366,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2361,14 +2382,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2401,13 +2422,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2434,13 +2455,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2467,7 +2488,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2500,7 +2521,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2510,11 +2531,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2526,14 +2547,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2547,10 +2568,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2559,14 +2580,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2580,10 +2601,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2592,14 +2613,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2609,11 +2630,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2625,31 +2646,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2665,21 +2686,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2691,31 +2712,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2724,31 +2745,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2757,28 +2778,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2790,31 +2811,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2823,28 +2844,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2856,31 +2877,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2889,7 +2910,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2902,11 +2923,11 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -2929,13 +2950,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2968,15 +2989,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -2988,66 +3009,165 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2809.7950000000001</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>187</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
-        <v>188</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>189</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>21</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>29</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>162</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>191</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>12</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>29</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>26</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>193</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>12</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>29</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>169</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>2893.2950000000001</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>194</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>195</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>196</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3331,10 +3451,25 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -218,331 +218,358 @@
     <t>DIVIDO 75MG 30 DUAL RELEASE CAPS.</t>
   </si>
   <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>93.0600</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>FLUROFLOX 400MG 10 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>184.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>FORADIL12 MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>89.6000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
+    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>IROSPECT 20 PIECES</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>LUTOFOLONE 2 AMP.</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>PARAGESIC 500MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REBIRTH WHITENING  CREAM</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t>SANSOVIT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>SELGON 20MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>UNIFUNGI 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8503:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>ZESTRIL 20MG 10 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>28:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>80:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>46.5300</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>FORADIL12 MG 60 CAPS</t>
-  </si>
-  <si>
-    <t>560.00</t>
-  </si>
-  <si>
-    <t>89.6000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>303.00</t>
-  </si>
-  <si>
-    <t>99.9900</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>IROSPECT 20 PIECES</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LACRITEARS EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>LUTOFOLONE 2 AMP.</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>69.3000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PARAGESIC 500MG 5 SUPP.</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>RAMIXOLE 1 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REBIRTH WHITENING  CREAM</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t>SANSOVIT PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>SINEMET 25/250 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>UNIFUNGI 150MG 2 CAPS.</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8503:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>ZESTRIL 20MG 10 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>28:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>بودره نلج اكياس</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>80:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>حنه جلوري سوده 1 كيس</t>
-  </si>
-  <si>
     <t>45.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>16.0000</t>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>9:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -581,9 +608,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
@@ -593,7 +617,7 @@
     <t>ملك العود مسك</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 5:23 PM</t>
+    <t>Sunday, 27 July, 2025 5:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1779,7 +1803,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1927,13 +1951,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1960,13 +1984,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1977,7 +2001,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1993,7 +2017,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2026,7 +2050,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2043,7 +2067,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2059,7 +2083,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2069,11 +2093,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>32</v>
@@ -2085,14 +2109,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2102,14 +2126,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2118,14 +2142,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2142,7 +2166,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2158,7 +2182,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2175,7 +2199,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2191,7 +2215,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2201,14 +2225,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2217,7 +2241,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2234,11 +2258,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2250,14 +2274,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2267,11 +2291,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2283,7 +2307,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2300,14 +2324,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2316,14 +2340,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2333,11 +2357,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2349,14 +2373,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2366,14 +2390,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2382,14 +2406,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2399,11 +2423,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2415,14 +2439,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2432,14 +2456,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2448,28 +2472,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2481,14 +2505,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2498,11 +2522,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2514,7 +2538,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2527,15 +2551,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2547,14 +2571,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2564,11 +2588,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2580,14 +2604,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2597,11 +2621,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>32</v>
@@ -2613,14 +2637,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2630,11 +2654,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2646,14 +2670,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2663,14 +2687,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2679,14 +2703,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2696,14 +2720,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2712,31 +2736,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2745,31 +2769,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2778,28 +2802,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2811,14 +2835,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2828,11 +2852,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>17</v>
@@ -2844,14 +2868,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2861,11 +2885,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2877,14 +2901,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2894,14 +2918,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2927,14 +2951,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2943,14 +2967,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2960,11 +2984,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>111</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2976,14 +3000,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2993,14 +3017,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3009,14 +3033,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3026,7 +3050,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3059,11 +3083,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3075,14 +3099,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3092,11 +3116,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>26</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3108,14 +3132,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3125,49 +3149,148 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>2893.2950000000001</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
-        <v>194</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
-        <v>195</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
-        <v>196</v>
-      </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>198</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>21</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>29</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>169</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>199</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>12</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>29</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>26</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>201</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>12</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>29</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>176</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>3092.3850000000002</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>202</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>203</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>204</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3466,10 +3589,25 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -617,7 +617,7 @@
     <t>ملك العود مسك</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 5:27 PM</t>
+    <t>Sunday, 27 July, 2025 5:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3186,10 +3186,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3260,7 +3260,7 @@
     </row>
     <row r="68" ht="24.75" customHeight="1">
       <c r="P68" s="13">
-        <v>3092.3850000000002</v>
+        <v>3122.3850000000002</v>
       </c>
       <c r="Q68" s="13"/>
     </row>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -161,6 +161,15 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>CO-TAREG 160/12.5MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>CRYPTOPER 100MG/5ML PD. FOR ORAL SUSP. 60ML</t>
   </si>
   <si>
@@ -254,9 +263,6 @@
     <t>75.00</t>
   </si>
   <si>
-    <t>75.0000</t>
-  </si>
-  <si>
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -419,6 +425,18 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>QUITAPEX 200MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>-86.1300</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>RAMIXOLE 1 MG 30 TAB.</t>
   </si>
   <si>
@@ -476,6 +494,15 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>136.5000</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -503,6 +530,21 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>WELLINTA 150 MG 30S.R.F.C.TABS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>291.00</t>
+  </si>
+  <si>
+    <t>483.0600</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>ZESTRIL 20MG 10 TAB</t>
   </si>
   <si>
@@ -617,7 +659,7 @@
     <t>ملك العود مسك</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 5:40 PM</t>
+    <t>Sunday, 27 July, 2025 5:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1588,7 +1630,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1605,7 +1647,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1621,7 +1663,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1638,7 +1680,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1654,7 +1696,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1664,14 +1706,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1680,7 +1722,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1697,7 +1739,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -1720,7 +1762,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1730,14 +1772,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1746,14 +1788,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1770,7 +1812,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1786,7 +1828,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1796,14 +1838,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1812,14 +1854,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1829,11 +1871,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>41</v>
@@ -1845,14 +1887,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1869,7 +1911,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1885,7 +1927,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1918,7 +1960,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1932,7 +1974,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1944,14 +1986,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1961,14 +2003,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1977,28 +2019,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>32</v>
@@ -2010,31 +2052,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2043,14 +2085,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2060,11 +2102,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2076,14 +2118,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2093,14 +2135,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2109,14 +2151,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2126,14 +2168,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2142,14 +2184,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2159,14 +2201,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2175,14 +2217,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2192,11 +2234,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>32</v>
@@ -2208,14 +2250,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2225,14 +2267,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2241,14 +2283,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2258,14 +2300,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2274,7 +2316,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2291,11 +2333,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2307,7 +2349,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2324,11 +2366,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2340,14 +2382,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2357,11 +2399,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2373,14 +2415,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2390,14 +2432,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2406,14 +2448,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2423,14 +2465,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2439,14 +2481,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2456,14 +2498,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2472,14 +2514,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2489,14 +2531,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2505,14 +2547,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2522,11 +2564,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2538,31 +2580,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>141</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2578,7 +2620,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2611,24 +2653,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2687,14 +2729,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2703,14 +2745,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2720,14 +2762,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2743,7 +2785,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2753,11 +2795,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2769,14 +2811,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2793,7 +2835,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2809,7 +2851,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2823,10 +2865,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2835,31 +2877,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2868,31 +2910,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2901,31 +2943,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>177</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2947,7 +2989,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2958,7 +3000,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2984,14 +3026,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3007,7 +3049,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3017,14 +3059,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>186</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3033,14 +3075,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3050,11 +3092,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3066,7 +3108,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3083,14 +3125,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3099,14 +3141,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3116,11 +3158,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>113</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3132,14 +3174,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3149,14 +3191,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3165,7 +3207,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3182,14 +3224,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>182</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3198,14 +3240,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3215,11 +3257,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3231,14 +3273,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3248,49 +3290,181 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>3122.3850000000002</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>202</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
-        <v>203</v>
-      </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
-        <v>204</v>
-      </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>209</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>196</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>29</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>210</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>212</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>21</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>29</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>183</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>213</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>12</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>29</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>26</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>215</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>12</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>29</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>190</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3730.8150000000001</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>216</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>217</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>218</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3604,10 +3778,30 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -257,6 +257,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>ELONE KERATIN SHAMPOO 200 ML</t>
+  </si>
+  <si>
+    <t>265.00</t>
+  </si>
+  <si>
+    <t>265.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -482,6 +491,15 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>SOOTONIC HAIR LOTION 120 ML</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>169.0000</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -659,7 +677,7 @@
     <t>ملك العود مسك</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 5:47 PM</t>
+    <t>Sunday, 27 July, 2025 5:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1974,7 +1992,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1986,14 +2004,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2003,11 +2021,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2026,7 +2044,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2043,7 +2061,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2059,13 +2077,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2092,13 +2110,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2109,7 +2127,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2125,7 +2143,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2158,7 +2176,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2175,7 +2193,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2191,7 +2209,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2208,7 +2226,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2224,7 +2242,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2234,14 +2252,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2250,14 +2268,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2290,7 +2308,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2307,7 +2325,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2323,7 +2341,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2340,7 +2358,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2366,11 +2384,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2382,7 +2400,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2399,11 +2417,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2422,7 +2440,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2432,7 +2450,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2455,7 +2473,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2465,14 +2483,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2488,7 +2506,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2505,7 +2523,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2521,7 +2539,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2538,7 +2556,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2554,7 +2572,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2564,14 +2582,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2580,14 +2598,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2604,7 +2622,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>141</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2613,14 +2631,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2630,14 +2648,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>144</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2653,13 +2671,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2692,7 +2710,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2719,7 +2737,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2729,14 +2747,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2752,7 +2770,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2762,14 +2780,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2785,7 +2803,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2795,11 +2813,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2811,14 +2829,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2828,11 +2846,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2844,14 +2862,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2865,10 +2883,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2877,14 +2895,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2894,11 +2912,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2910,14 +2928,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2931,10 +2949,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2943,14 +2961,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2960,14 +2978,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>177</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2976,14 +2994,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2993,14 +3011,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3009,31 +3027,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>70</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>17</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3049,21 +3067,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>185</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3075,14 +3093,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3092,14 +3110,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3108,14 +3126,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3125,14 +3143,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3141,14 +3159,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3158,7 +3176,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>113</v>
+        <v>196</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3191,14 +3209,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>200</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3214,7 +3232,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3224,11 +3242,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3240,7 +3258,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3257,14 +3275,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3273,14 +3291,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3290,7 +3308,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3313,7 +3331,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3346,7 +3364,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3356,14 +3374,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>196</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3372,14 +3390,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3389,11 +3407,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>26</v>
+        <v>216</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3405,14 +3423,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3422,49 +3440,115 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3730.8150000000001</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>216</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>217</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
-        <v>218</v>
-      </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>219</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>12</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>29</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>26</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>221</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>12</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>29</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>196</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>4164.8149999999996</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>222</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>223</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>224</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3798,10 +3882,20 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -677,7 +677,7 @@
     <t>ملك العود مسك</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 5:49 PM</t>
+    <t>Sunday, 27 July, 2025 5:50 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -677,7 +677,7 @@
     <t>ملك العود مسك</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 5:50 PM</t>
+    <t>Sunday, 27 July, 2025 6:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -677,7 +677,10 @@
     <t>ملك العود مسك</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 6:11 PM</t>
+    <t>مناديل مبلله كبيره</t>
+  </si>
+  <si>
+    <t>Sunday, 27 July, 2025 6:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3517,38 +3520,71 @@
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>4164.8149999999996</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>222</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>76</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>29</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>69</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>4194.8149999999996</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
         <v>223</v>
       </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
         <v>224</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>225</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3892,10 +3928,15 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -161,6 +161,12 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>CO-TAREG 160/12.5MG 14 F.C. TAB.</t>
   </si>
   <si>
@@ -281,6 +287,15 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>FLUROFLOX 400MG 10 F.C. TABS.</t>
   </si>
   <si>
@@ -434,6 +449,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
     <t>QUITAPEX 200MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -680,7 +704,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 6:17 PM</t>
+    <t>Sunday, 27 July, 2025 6:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1661,11 +1685,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>32</v>
@@ -1677,14 +1701,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1694,14 +1718,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1710,14 +1734,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1727,14 +1751,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1743,14 +1767,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1760,14 +1784,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1793,11 +1817,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1809,14 +1833,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1826,14 +1850,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1842,14 +1866,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1859,14 +1883,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1875,14 +1899,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1892,14 +1916,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1908,14 +1932,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1925,11 +1949,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>41</v>
@@ -1941,14 +1965,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1958,14 +1982,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1974,14 +1998,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1991,11 +2015,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2007,7 +2031,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2024,11 +2048,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2047,7 +2071,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2061,7 +2085,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2073,14 +2097,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2090,14 +2114,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2106,28 +2130,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>32</v>
@@ -2139,14 +2163,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2156,14 +2180,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2172,31 +2196,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2205,14 +2229,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2222,14 +2246,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2238,14 +2262,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2255,14 +2279,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2271,14 +2295,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2288,11 +2312,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>32</v>
@@ -2304,14 +2328,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2321,14 +2345,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2337,14 +2361,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2354,14 +2378,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2370,14 +2394,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2387,14 +2411,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2403,14 +2427,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2420,14 +2444,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2436,7 +2460,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2453,11 +2477,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2469,14 +2493,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2486,11 +2510,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2502,7 +2526,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2519,14 +2543,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2535,14 +2559,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2552,11 +2576,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2568,14 +2592,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2585,14 +2609,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2601,14 +2625,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2618,11 +2642,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2634,14 +2658,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2651,14 +2675,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>144</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2667,14 +2691,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2684,11 +2708,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2700,31 +2724,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2733,14 +2757,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2750,14 +2774,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2766,14 +2790,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2783,14 +2807,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2799,7 +2823,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2812,15 +2836,15 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2832,7 +2856,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2849,11 +2873,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2865,14 +2889,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2882,14 +2906,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2898,14 +2922,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2915,11 +2939,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2931,14 +2955,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2948,14 +2972,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2964,14 +2988,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3004,7 +3028,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3014,14 +3038,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3030,14 +3054,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3047,14 +3071,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>183</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3063,14 +3087,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3080,11 +3104,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3096,31 +3120,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3129,31 +3153,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3162,28 +3186,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3195,14 +3219,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3212,11 +3236,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>17</v>
@@ -3228,14 +3252,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3245,11 +3269,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3261,14 +3285,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3278,14 +3302,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>206</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3294,7 +3318,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3311,14 +3335,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3334,7 +3358,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3344,7 +3368,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>210</v>
+        <v>121</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3367,7 +3391,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3377,14 +3401,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q69" s="12">
         <v>214</v>
-      </c>
-      <c t="s" r="Q69" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3400,7 +3424,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3410,11 +3434,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3426,7 +3450,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3443,14 +3467,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>202</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3459,14 +3483,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3476,11 +3500,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3492,14 +3516,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3509,11 +3533,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3525,14 +3549,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3542,49 +3566,148 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>227</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>12</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>29</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>26</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
         <v>70</v>
       </c>
-      <c t="s" r="Q74" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>4194.8149999999996</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
-        <v>223</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
-        <v>224</v>
-      </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
-        <v>225</v>
-      </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>229</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>12</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>29</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>204</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>230</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>78</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>29</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>71</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>4359.875</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>231</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>232</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>233</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3933,10 +4056,25 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -131,6 +131,18 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>CALCITRON 30 CAPS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
     <t>CAPOZIDE 50/25MG 30 TAB.</t>
   </si>
   <si>
@@ -287,12 +299,18 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
     <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
   </si>
   <si>
-    <t>144.00</t>
-  </si>
-  <si>
     <t>72.0000</t>
   </si>
   <si>
@@ -353,9 +371,6 @@
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>173.00</t>
   </si>
   <si>
@@ -704,7 +719,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 6:19 PM</t>
+    <t>Sunday, 27 July, 2025 6:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1609,24 +1624,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1635,28 +1650,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1668,7 +1683,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1685,14 +1700,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1701,7 +1716,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1718,11 +1733,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>32</v>
@@ -1734,14 +1749,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1751,14 +1766,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1767,14 +1782,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1784,14 +1799,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1800,14 +1815,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1817,14 +1832,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1833,7 +1848,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1850,11 +1865,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1866,14 +1881,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1890,7 +1905,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1906,7 +1921,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1916,14 +1931,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1932,14 +1947,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1956,7 +1971,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1989,7 +2004,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2005,7 +2020,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2015,14 +2030,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2031,14 +2046,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2048,11 +2063,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2064,7 +2079,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2081,11 +2096,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2097,14 +2112,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2114,11 +2129,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2130,14 +2145,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2147,14 +2162,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2163,14 +2178,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2180,11 +2195,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>32</v>
@@ -2196,24 +2211,24 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2236,7 +2251,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2253,7 +2268,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2269,13 +2284,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2286,7 +2301,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2302,7 +2317,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2319,7 +2334,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2335,7 +2350,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2352,7 +2367,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2368,7 +2383,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2378,11 +2393,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>32</v>
@@ -2394,14 +2409,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2411,14 +2426,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2427,14 +2442,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2444,14 +2459,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2460,14 +2475,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2477,14 +2492,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2493,14 +2508,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2510,14 +2525,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2526,7 +2541,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2543,11 +2558,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2559,14 +2574,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2576,11 +2591,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2592,7 +2607,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2609,14 +2624,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2625,14 +2640,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2642,11 +2657,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2658,14 +2673,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2675,14 +2690,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2691,14 +2706,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2708,11 +2723,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2724,14 +2739,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2741,11 +2756,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>32</v>
@@ -2757,14 +2772,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2774,14 +2789,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>152</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2790,7 +2805,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2807,14 +2822,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2823,31 +2838,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2856,14 +2871,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2873,11 +2888,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2889,31 +2904,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2922,7 +2937,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2939,11 +2954,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2955,14 +2970,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2972,14 +2987,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2988,14 +3003,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3005,11 +3020,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3021,14 +3036,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3038,11 +3053,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3054,14 +3069,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3071,14 +3086,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3094,7 +3109,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3127,7 +3142,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3137,14 +3152,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3153,14 +3168,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>17</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3170,14 +3185,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>191</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3186,14 +3201,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3203,14 +3218,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3219,31 +3234,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>17</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3252,28 +3267,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3285,14 +3300,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3302,14 +3317,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3318,14 +3333,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3335,14 +3350,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3351,14 +3366,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3368,11 +3383,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3384,7 +3399,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3401,14 +3416,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>213</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>214</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3417,14 +3432,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3434,7 +3449,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3467,14 +3482,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q71" s="12">
         <v>219</v>
-      </c>
-      <c t="s" r="Q71" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3490,7 +3505,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3500,11 +3515,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3516,14 +3531,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3533,11 +3548,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3549,14 +3564,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3566,14 +3581,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>210</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3582,14 +3597,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3599,11 +3614,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3615,14 +3630,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3632,14 +3647,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3648,14 +3663,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3665,49 +3680,115 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
         <v>72</v>
       </c>
-      <c t="s" r="Q77" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>4359.875</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
-        <v>231</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
-        <v>232</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
-        <v>233</v>
-      </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>234</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>12</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>29</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>209</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>235</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>82</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>29</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>75</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>4452.9350000000004</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>236</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>237</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>238</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4071,10 +4152,20 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -233,6 +233,12 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
     <t>DIASTOP SUSP. 60ML</t>
   </si>
   <si>
@@ -719,7 +725,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 6:21 PM</t>
+    <t>Sunday, 27 July, 2025 6:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1954,7 +1960,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1968,7 +1974,7 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1980,14 +1986,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1997,14 +2003,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2013,14 +2019,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2030,11 +2036,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>45</v>
@@ -2046,14 +2052,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2063,14 +2069,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2079,14 +2085,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2096,11 +2102,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2112,7 +2118,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2129,11 +2135,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2152,7 +2158,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2166,7 +2172,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2178,14 +2184,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2195,14 +2201,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2211,14 +2217,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2228,7 +2234,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2261,11 +2267,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>32</v>
@@ -2277,28 +2283,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>32</v>
@@ -2310,31 +2316,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2343,14 +2349,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2360,11 +2366,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2376,14 +2382,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2393,14 +2399,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2409,14 +2415,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2426,14 +2432,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2442,14 +2448,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2459,14 +2465,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2475,14 +2481,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2492,11 +2498,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>32</v>
@@ -2508,14 +2514,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2525,14 +2531,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2541,14 +2547,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2558,14 +2564,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2574,7 +2580,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2591,11 +2597,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2607,7 +2613,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2624,11 +2630,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2640,14 +2646,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2657,11 +2663,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2673,14 +2679,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2690,14 +2696,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2706,14 +2712,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2723,14 +2729,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2739,14 +2745,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2756,14 +2762,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2772,14 +2778,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2789,14 +2795,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2805,14 +2811,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2822,14 +2828,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2838,14 +2844,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2855,14 +2861,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>157</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2871,14 +2877,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2888,14 +2894,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2904,28 +2910,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2937,7 +2943,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2950,15 +2956,15 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2970,14 +2976,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2987,14 +2993,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3003,14 +3009,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3020,14 +3026,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3036,7 +3042,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3053,11 +3059,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3069,14 +3075,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3086,11 +3092,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3102,14 +3108,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3119,11 +3125,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3135,14 +3141,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3152,14 +3158,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3175,7 +3181,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3189,10 +3195,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3201,14 +3207,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3218,14 +3224,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3234,14 +3240,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3251,14 +3257,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>196</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3267,14 +3273,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3284,14 +3290,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3300,31 +3306,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3333,14 +3339,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3350,14 +3356,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3366,14 +3372,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3383,11 +3389,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3399,14 +3405,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3416,14 +3422,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3432,14 +3438,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3449,14 +3455,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3465,14 +3471,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3482,14 +3488,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>219</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3498,7 +3504,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3515,14 +3521,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q72" s="12">
         <v>221</v>
-      </c>
-      <c t="s" r="Q72" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3548,11 +3554,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3564,14 +3570,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3581,11 +3587,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3597,14 +3603,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3614,11 +3620,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3630,14 +3636,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3647,14 +3653,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>215</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3663,14 +3669,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3680,14 +3686,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3713,11 +3719,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>209</v>
+        <v>26</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3729,14 +3735,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3746,49 +3752,82 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>4452.9350000000004</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
-        <v>236</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
         <v>237</v>
       </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>84</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>29</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>77</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>4479.9350000000004</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
         <v>238</v>
       </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>239</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>240</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4162,10 +4201,15 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -347,6 +347,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>GASTROBIOTIC 200 MG 20 F.C.TAB. (N/A)</t>
+  </si>
+  <si>
+    <t>169.50</t>
+  </si>
+  <si>
+    <t>84.7500</t>
+  </si>
+  <si>
     <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
   </si>
   <si>
@@ -383,6 +392,15 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>HIDRASEC 100 MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
     <t>IROSPECT 20 PIECES</t>
   </si>
   <si>
@@ -422,6 +440,12 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -455,123 +479,141 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PARAGESIC 500MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>QUITAPEX 200MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>-86.1300</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REBIRTH WHITENING  CREAM</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t>SANSOVIT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>SELGON 20MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>SOOTONIC HAIR LOTION 120 ML</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>169.0000</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>SPASULANCE 62.5 MG 20 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>136.5000</t>
+  </si>
+  <si>
+    <t>TINIFLOXACIN 10 TAB.</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
     <t>23.0000</t>
   </si>
   <si>
-    <t>PARAGESIC 500MG 5 SUPP.</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>67.3200</t>
-  </si>
-  <si>
-    <t>QUITAPEX 200MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>261.00</t>
-  </si>
-  <si>
-    <t>-86.1300</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>RAMIXOLE 1 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REBIRTH WHITENING  CREAM</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t>SANSOVIT PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>SELGON 20MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>SINEMET 25/250 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>SOOTONIC HAIR LOTION 120 ML</t>
-  </si>
-  <si>
-    <t>169.00</t>
-  </si>
-  <si>
-    <t>169.0000</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>136.5000</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
     <t>UNIFUNGI 150MG 2 CAPS.</t>
   </si>
   <si>
@@ -725,7 +767,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 6:25 PM</t>
+    <t>Sunday, 27 July, 2025 6:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2406,7 +2448,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2422,7 +2464,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2439,7 +2481,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2455,7 +2497,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2472,7 +2514,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2488,7 +2530,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2505,7 +2547,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2521,7 +2563,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2554,7 +2596,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2571,7 +2613,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2587,7 +2629,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2604,7 +2646,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2620,7 +2662,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2630,14 +2672,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2646,7 +2688,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2663,11 +2705,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2679,14 +2721,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2696,11 +2738,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2736,7 +2778,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2752,7 +2794,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2762,14 +2804,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2778,14 +2820,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2795,14 +2837,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2811,14 +2853,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2828,14 +2870,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2844,14 +2886,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2861,14 +2903,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2877,14 +2919,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2894,14 +2936,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>159</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2910,14 +2952,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2927,11 +2969,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2943,31 +2985,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2976,14 +3018,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2993,14 +3035,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3009,14 +3051,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3026,14 +3068,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3042,7 +3084,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3055,15 +3097,15 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3075,7 +3117,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3092,11 +3134,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3108,14 +3150,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3125,14 +3167,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3141,14 +3183,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3158,11 +3200,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3174,14 +3216,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3191,14 +3233,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3207,14 +3249,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3247,7 +3289,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3257,14 +3299,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3273,14 +3315,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3290,14 +3332,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>198</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3306,7 +3348,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3323,14 +3365,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3339,31 +3381,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3372,28 +3414,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3405,31 +3447,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3438,31 +3480,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>17</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3471,28 +3513,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3504,14 +3546,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3521,14 +3563,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>221</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3537,14 +3579,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3554,11 +3596,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3570,14 +3612,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>224</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3610,7 +3652,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3627,7 +3669,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3643,7 +3685,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3653,7 +3695,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3686,14 +3728,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>217</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3702,14 +3744,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3719,11 +3761,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3735,14 +3777,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3752,11 +3794,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3768,14 +3810,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3785,49 +3827,214 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>244</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>231</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>29</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>245</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>247</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>21</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>29</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>218</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>248</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>12</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>29</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>26</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
         <v>78</v>
       </c>
-      <c t="s" r="Q80" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>4479.9350000000004</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
-        <v>238</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
-        <v>239</v>
-      </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
-        <v>240</v>
-      </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>250</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>12</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>29</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>225</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>251</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>84</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>29</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>77</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>4864.3050000000003</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>252</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>253</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>254</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4206,10 +4413,35 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -767,7 +767,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 6:27 PM</t>
+    <t>Sunday, 27 July, 2025 6:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2695,7 +2695,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -173,6 +173,18 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>CONTROLEPSY 50 MG 30 TAB</t>
   </si>
   <si>
@@ -263,9 +275,6 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
@@ -392,6 +401,12 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
     <t>HIDRASEC 100 MG 10 CAPS.</t>
   </si>
   <si>
@@ -476,9 +491,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>92.00</t>
-  </si>
-  <si>
     <t>46.0000</t>
   </si>
   <si>
@@ -626,13 +638,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8503:0</t>
+    <t>8501:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>12.0000</t>
   </si>
   <si>
     <t>WELLINTA 150 MG 30S.R.F.C.TABS.</t>
@@ -740,9 +752,6 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -767,7 +776,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 6:38 PM</t>
+    <t>Sunday, 27 July, 2025 6:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1771,7 +1780,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1781,14 +1790,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1797,7 +1806,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1814,11 +1823,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>32</v>
@@ -1830,14 +1839,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1847,14 +1856,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1863,14 +1872,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1880,14 +1889,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1896,14 +1905,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1913,14 +1922,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1929,7 +1938,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1946,11 +1955,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1962,14 +1971,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1986,7 +1995,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2002,7 +2011,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2012,14 +2021,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2028,14 +2037,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2045,11 +2054,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2061,14 +2070,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2085,7 +2094,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2134,7 +2143,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2151,7 +2160,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2167,7 +2176,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2214,7 +2223,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2226,14 +2235,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2243,11 +2252,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2266,7 +2275,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2283,7 +2292,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2299,7 +2308,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2309,11 +2318,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>32</v>
@@ -2325,7 +2334,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2342,7 +2351,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2365,13 +2374,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2398,13 +2407,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2415,7 +2424,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2431,7 +2440,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2448,7 +2457,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2481,7 +2490,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2497,7 +2506,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2514,7 +2523,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2530,7 +2539,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2547,7 +2556,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2563,7 +2572,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2580,7 +2589,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2596,7 +2605,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2613,7 +2622,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2629,7 +2638,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2643,10 +2652,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2655,14 +2664,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2672,14 +2681,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2688,14 +2697,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2705,14 +2714,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2721,14 +2730,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2738,14 +2747,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2754,14 +2763,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2771,11 +2780,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2787,14 +2796,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2804,14 +2813,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2827,7 +2836,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2837,7 +2846,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2860,7 +2869,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2870,14 +2879,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2886,14 +2895,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2903,11 +2912,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2919,14 +2928,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2936,11 +2945,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>45</v>
@@ -2952,14 +2961,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2969,11 +2978,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2985,14 +2994,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3002,14 +3011,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3018,14 +3027,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3035,14 +3044,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>167</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3051,7 +3060,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3068,14 +3077,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3084,31 +3093,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3117,14 +3126,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3134,11 +3143,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3150,31 +3159,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3183,7 +3192,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3200,11 +3209,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3216,14 +3225,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3233,14 +3242,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3249,14 +3258,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3266,11 +3275,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3282,7 +3291,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3299,11 +3308,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3315,14 +3324,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>41</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3332,11 +3341,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3348,7 +3357,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3365,14 +3374,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3381,14 +3390,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3398,14 +3407,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3414,14 +3423,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3431,14 +3440,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3447,14 +3456,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3464,14 +3473,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3480,14 +3489,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3497,14 +3506,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>212</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3513,14 +3522,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3530,14 +3539,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3546,31 +3555,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3579,28 +3588,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3612,14 +3621,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3629,14 +3638,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>226</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3645,14 +3654,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>224</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3662,14 +3671,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3678,14 +3687,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3695,11 +3704,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3711,7 +3720,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3728,14 +3737,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>235</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3744,14 +3753,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3761,11 +3770,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>139</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3777,7 +3786,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3794,14 +3803,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3810,14 +3819,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3827,11 +3836,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3843,14 +3852,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3860,11 +3869,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3876,14 +3885,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3893,14 +3902,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>231</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3909,14 +3918,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3926,7 +3935,7 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>26</v>
+        <v>248</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -3949,7 +3958,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3959,14 +3968,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3982,7 +3991,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3992,49 +4001,115 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>4864.3050000000003</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
-        <v>252</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
         <v>253</v>
       </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>12</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>29</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>229</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
         <v>254</v>
       </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>55</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>29</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>81</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>4993.3050000000003</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>255</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>256</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>257</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4438,10 +4513,20 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
@@ -134,9 +146,6 @@
     <t>CALCITRON 30 CAPS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>144.00</t>
   </si>
   <si>
@@ -260,6 +269,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>DIVIDO 75MG 30 DUAL RELEASE CAPS.</t>
   </si>
   <si>
@@ -314,6 +332,15 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>E-YEAST 20 CAPS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>FERROTRON 30 CAPS</t>
   </si>
   <si>
@@ -368,9 +395,6 @@
     <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
   </si>
   <si>
-    <t>62.00</t>
-  </si>
-  <si>
     <t>62.0000</t>
   </si>
   <si>
@@ -455,6 +479,12 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
@@ -485,9 +515,6 @@
     <t>31.00</t>
   </si>
   <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -596,9 +623,6 @@
     <t>SPASULANCE 62.5 MG 20 ORODISPERSIBLE FILMS</t>
   </si>
   <si>
-    <t>90.00</t>
-  </si>
-  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -635,6 +659,12 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -719,9 +749,6 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -776,7 +803,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 6:42 PM</t>
+    <t>Sunday, 27 July, 2025 6:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1615,7 +1642,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1625,14 +1652,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1641,14 +1668,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1665,7 +1692,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1681,7 +1708,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1691,11 +1718,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>32</v>
@@ -1707,20 +1734,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1731,7 +1758,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1747,13 +1774,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1780,7 +1807,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1790,11 +1817,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1806,14 +1833,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1823,14 +1850,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1839,7 +1866,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1856,7 +1883,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -1879,7 +1906,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1896,7 +1923,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1912,7 +1939,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1929,7 +1956,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1945,7 +1972,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1955,14 +1982,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1971,7 +1998,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1988,7 +2015,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -2011,7 +2038,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2021,14 +2048,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2037,14 +2064,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2058,10 +2085,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2070,14 +2097,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2087,11 +2114,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2110,7 +2137,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2120,14 +2147,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2136,14 +2163,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2153,14 +2180,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2169,14 +2196,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2193,7 +2220,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2209,7 +2236,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2226,7 +2253,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2242,7 +2269,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2256,7 +2283,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2268,14 +2295,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2285,11 +2312,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2301,14 +2328,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2318,14 +2345,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2341,7 +2368,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2351,14 +2378,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2367,7 +2394,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2384,11 +2411,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>32</v>
@@ -2400,28 +2427,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>32</v>
@@ -2433,14 +2460,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2450,14 +2477,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2473,7 +2500,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2506,13 +2533,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2523,7 +2550,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2539,7 +2566,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2556,7 +2583,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2572,7 +2599,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2589,7 +2616,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2605,7 +2632,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2615,14 +2642,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2631,14 +2658,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2648,14 +2675,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2671,7 +2698,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2688,7 +2715,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2704,7 +2731,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2737,7 +2764,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2751,10 +2778,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2763,7 +2790,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2780,11 +2807,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2796,14 +2823,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2813,14 +2840,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2829,14 +2856,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2846,14 +2873,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2862,14 +2889,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2879,14 +2906,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2895,14 +2922,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2912,11 +2939,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2952,7 +2979,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2968,7 +2995,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2982,10 +3009,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2994,14 +3021,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3011,14 +3038,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3027,14 +3054,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3044,11 +3071,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3060,14 +3087,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3077,14 +3104,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3093,14 +3120,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3110,14 +3137,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>171</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3126,14 +3153,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3143,14 +3170,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3159,28 +3186,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3192,14 +3219,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3209,14 +3236,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3225,14 +3252,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3242,14 +3269,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>32</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3258,14 +3285,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3275,11 +3302,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3291,7 +3318,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3304,15 +3331,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3324,14 +3351,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3341,11 +3368,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3357,14 +3384,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3374,14 +3401,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>84</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3390,14 +3417,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3407,11 +3434,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3423,7 +3450,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3440,14 +3467,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3456,14 +3483,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3473,14 +3500,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3489,14 +3516,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3506,11 +3533,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3522,14 +3549,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>34</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3539,14 +3566,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>191</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3555,14 +3582,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3572,14 +3599,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>216</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3588,14 +3615,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3605,14 +3632,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3621,31 +3648,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>221</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3654,31 +3681,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>224</v>
+        <v>48</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3687,31 +3714,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3720,31 +3747,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>17</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3753,28 +3780,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>139</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3786,14 +3813,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3803,14 +3830,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>238</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>239</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3819,14 +3846,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>234</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3836,11 +3863,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3852,14 +3879,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3869,11 +3896,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3885,14 +3912,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3902,14 +3929,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3918,14 +3945,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3935,11 +3962,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>248</v>
+        <v>147</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>249</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3951,7 +3978,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3968,14 +3995,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3984,14 +4011,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4001,11 +4028,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4017,14 +4044,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4034,11 +4061,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4057,7 +4084,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4067,49 +4094,214 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>81</v>
+        <v>255</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
         <v>82</v>
       </c>
-      <c t="s" r="Q87" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>4993.3050000000003</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>255</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>256</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>245</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>29</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
         <v>257</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>259</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>21</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>29</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>232</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>260</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>12</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>29</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>26</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>262</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>12</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>29</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>239</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>263</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>58</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>29</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>84</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>5251.5249999999996</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>264</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>265</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>266</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4523,10 +4715,35 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -137,6 +137,9 @@
     <t>CALAMYL LOTION 100 ML</t>
   </si>
   <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>49.00</t>
   </si>
   <si>
@@ -398,6 +401,18 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>GICYANO 30 F.C TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
     <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -689,9 +704,6 @@
     <t>483.0600</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>ZESTRIL 20MG 10 TAB</t>
   </si>
   <si>
@@ -785,7 +797,7 @@
     <t>50.00</t>
   </si>
   <si>
-    <t>50.0000</t>
+    <t>100.0000</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -803,7 +815,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 6:51 PM</t>
+    <t>Sunday, 27 July, 2025 7:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1675,7 +1687,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1685,11 +1697,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1701,7 +1713,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1718,11 +1730,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>32</v>
@@ -1734,14 +1746,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1751,11 +1763,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>32</v>
@@ -1767,7 +1779,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1784,11 +1796,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1800,7 +1812,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1817,11 +1829,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1833,14 +1845,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1850,11 +1862,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1866,7 +1878,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1887,7 +1899,7 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>32</v>
@@ -1899,7 +1911,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1916,11 +1928,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>32</v>
@@ -1932,7 +1944,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1949,11 +1961,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1965,14 +1977,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1982,11 +1994,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>32</v>
@@ -1998,7 +2010,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2019,7 +2031,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2031,7 +2043,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2048,11 +2060,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2064,14 +2076,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2081,11 +2093,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>32</v>
@@ -2097,7 +2109,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2114,7 +2126,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2130,7 +2142,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2147,11 +2159,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2163,7 +2175,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2180,11 +2192,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>32</v>
@@ -2196,14 +2208,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2213,14 +2225,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2229,14 +2241,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2246,14 +2258,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2262,7 +2274,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2279,11 +2291,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2295,7 +2307,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2312,11 +2324,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2328,7 +2340,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2345,11 +2357,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2361,14 +2373,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2378,11 +2390,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2394,7 +2406,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2411,11 +2423,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>32</v>
@@ -2427,7 +2439,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2444,11 +2456,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>32</v>
@@ -2460,7 +2472,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2477,11 +2489,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>32</v>
@@ -2493,7 +2505,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2510,11 +2522,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>32</v>
@@ -2526,14 +2538,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2543,11 +2555,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>32</v>
@@ -2559,7 +2571,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2576,11 +2588,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2592,7 +2604,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2609,11 +2621,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>32</v>
@@ -2625,7 +2637,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2642,11 +2654,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2658,14 +2670,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2675,11 +2687,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>32</v>
@@ -2691,14 +2703,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2708,14 +2720,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2724,14 +2736,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2741,14 +2753,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2757,14 +2769,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2774,14 +2786,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2790,14 +2802,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2807,11 +2819,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2823,14 +2835,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2840,14 +2852,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2856,14 +2868,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2873,14 +2885,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2889,14 +2901,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2906,14 +2918,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2922,14 +2934,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2939,11 +2951,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2955,7 +2967,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2972,11 +2984,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2988,14 +3000,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3005,14 +3017,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3021,14 +3033,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3038,14 +3050,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3054,14 +3066,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>161</v>
+        <v>49</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3071,14 +3083,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3087,14 +3099,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3104,14 +3116,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3120,14 +3132,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3137,14 +3149,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3153,14 +3165,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3170,14 +3182,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3186,14 +3198,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3203,14 +3215,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3219,14 +3231,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3236,14 +3248,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3252,14 +3264,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3269,14 +3281,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>180</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3285,14 +3297,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3302,14 +3314,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3318,28 +3330,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3351,7 +3363,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3364,15 +3376,15 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3384,14 +3396,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3401,14 +3413,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3417,14 +3429,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3434,14 +3446,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>85</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3450,7 +3462,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3467,11 +3479,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3483,14 +3495,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3500,11 +3512,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3516,14 +3528,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3533,11 +3545,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>108</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3549,14 +3561,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3566,11 +3578,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>109</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3582,14 +3594,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3599,14 +3611,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3615,14 +3627,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3632,11 +3644,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>32</v>
@@ -3648,14 +3660,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3665,14 +3677,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3681,14 +3693,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3698,14 +3710,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3714,14 +3726,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>49</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3731,14 +3743,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>200</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3747,14 +3759,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3764,14 +3776,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3787,7 +3799,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3797,14 +3809,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3813,20 +3825,20 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3834,10 +3846,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>85</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3846,14 +3858,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3863,14 +3875,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3919,7 +3931,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3929,14 +3941,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3945,14 +3957,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3962,14 +3974,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>147</v>
+        <v>246</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>109</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3978,14 +3990,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>249</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3995,14 +4007,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>248</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4011,7 +4023,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4028,14 +4040,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4044,7 +4056,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4061,11 +4073,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4077,14 +4089,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4094,11 +4106,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4110,14 +4122,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>245</v>
+        <v>25</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4127,11 +4139,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4143,14 +4155,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4160,14 +4172,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>109</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>245</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4176,14 +4188,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4193,14 +4205,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4209,7 +4221,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4226,11 +4238,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>239</v>
+        <v>26</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4242,14 +4254,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4259,49 +4271,82 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>84</v>
+        <v>243</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>267</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>59</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>29</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
         <v>85</v>
       </c>
-      <c t="s" r="Q92" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>5251.5249999999996</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>264</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
-        <v>265</v>
-      </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
-        <v>266</v>
-      </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>5360.9250000000002</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>268</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>269</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>270</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4740,10 +4785,15 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -476,6 +476,9 @@
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -758,9 +761,6 @@
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -815,7 +815,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 7:03 PM</t>
+    <t>Sunday, 27 July, 2025 7:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2941,7 +2941,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2951,11 +2951,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3017,11 +3017,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>32</v>
@@ -3099,14 +3099,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3149,11 +3149,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>49</v>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>49</v>
@@ -3231,14 +3231,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3248,11 +3248,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3281,11 +3281,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>32</v>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3314,14 +3314,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3347,11 +3347,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3380,11 +3380,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3413,11 +3413,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3429,14 +3429,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>32</v>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3479,11 +3479,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3512,11 +3512,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3528,14 +3528,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3545,11 +3545,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3611,11 +3611,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3644,11 +3644,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>32</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3677,11 +3677,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>32</v>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3710,11 +3710,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>32</v>
@@ -3759,14 +3759,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3776,14 +3776,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3792,14 +3792,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3809,11 +3809,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>131</v>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3842,11 +3842,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3858,14 +3858,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -3891,14 +3891,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3908,11 +3908,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3924,14 +3924,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3941,11 +3941,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3974,11 +3974,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>17</v>
@@ -3990,14 +3990,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>249</v>
+        <v>155</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4205,14 +4205,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>249</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4271,11 +4271,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -110,45 +110,36 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>CALCITRON 30 CAPS.</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>CALAMYL LOTION 100 ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>CALCITRON 30 CAPS.</t>
-  </si>
-  <si>
     <t>144.00</t>
   </si>
   <si>
@@ -815,7 +806,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 7:13 PM</t>
+    <t>Sunday, 27 July, 2025 7:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1671,7 +1662,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1704,7 +1695,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1720,7 +1711,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1730,11 +1721,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>32</v>
@@ -1746,20 +1737,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1770,7 +1761,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1786,13 +1777,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1819,7 +1810,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1829,11 +1820,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1845,14 +1836,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1862,14 +1853,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1878,7 +1869,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1895,7 +1886,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -1918,7 +1909,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1935,7 +1926,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1951,7 +1942,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1968,7 +1959,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1984,7 +1975,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1994,14 +1985,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2010,7 +2001,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2027,7 +2018,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -2050,7 +2041,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2060,14 +2051,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2076,14 +2067,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2097,10 +2088,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2109,14 +2100,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2126,11 +2117,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2149,7 +2140,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2166,7 +2157,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2182,7 +2173,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2192,14 +2183,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2208,14 +2199,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2232,7 +2223,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2248,7 +2239,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2265,7 +2256,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2281,7 +2272,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2328,7 +2319,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2340,14 +2331,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2357,11 +2348,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2380,7 +2371,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2397,7 +2388,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2413,7 +2404,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2446,7 +2437,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2456,11 +2447,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>32</v>
@@ -2472,7 +2463,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2489,7 +2480,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2512,13 +2503,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2545,13 +2536,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2562,7 +2553,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2578,7 +2569,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2595,7 +2586,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2621,14 +2612,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2637,14 +2628,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2654,14 +2645,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2670,14 +2661,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2710,7 +2701,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2727,7 +2718,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2743,7 +2734,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2760,7 +2751,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2776,7 +2767,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2790,10 +2781,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2802,14 +2793,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2819,11 +2810,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2842,7 +2833,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2859,7 +2850,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2875,7 +2866,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2892,7 +2883,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2908,7 +2899,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2918,14 +2909,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2934,14 +2925,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2951,11 +2942,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2967,7 +2958,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2984,11 +2975,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3007,7 +2998,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3021,10 +3012,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3033,14 +3024,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3050,14 +3041,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3066,14 +3057,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3083,14 +3074,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3106,7 +3097,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3116,14 +3107,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3139,7 +3130,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3153,10 +3144,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3165,14 +3156,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3182,14 +3173,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3198,14 +3189,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3215,14 +3206,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3231,14 +3222,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3255,7 +3246,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3271,7 +3262,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3288,7 +3279,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>32</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3297,14 +3288,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3314,14 +3305,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>186</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3337,13 +3328,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3370,13 +3361,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3403,7 +3394,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3413,14 +3404,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3436,7 +3427,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3446,14 +3437,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3502,7 +3493,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3512,11 +3503,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3528,14 +3519,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3545,11 +3536,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>106</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3561,14 +3552,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3578,11 +3569,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3601,7 +3592,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3618,7 +3609,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3634,7 +3625,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3667,7 +3658,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3684,7 +3675,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3700,7 +3691,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3710,14 +3701,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3726,14 +3717,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>49</v>
+        <v>222</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3743,14 +3734,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>109</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>32</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3759,14 +3750,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3776,14 +3767,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>206</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3792,14 +3783,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3816,7 +3807,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>131</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3832,24 +3823,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3879,10 +3870,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>86</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3891,14 +3882,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3908,11 +3899,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3924,14 +3915,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>243</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3948,7 +3939,7 @@
         <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3964,7 +3955,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3974,14 +3965,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>247</v>
+        <v>149</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>248</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3990,14 +3981,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4007,14 +3998,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>110</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4040,14 +4031,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>252</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4056,7 +4047,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4073,7 +4064,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4096,7 +4087,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4110,7 +4101,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4122,14 +4113,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4139,14 +4130,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4162,7 +4153,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4172,14 +4163,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>17</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4188,14 +4179,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4205,14 +4196,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>237</v>
+        <v>26</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>110</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4221,7 +4212,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4238,11 +4229,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4254,14 +4245,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4271,82 +4262,49 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>244</v>
+        <v>82</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>245</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
-      <c r="A93" s="7">
-        <v>87</v>
-      </c>
-      <c r="B93" s="7"/>
-      <c t="s" r="C93" s="8">
+      <c r="P93" s="13">
+        <v>5255.9250000000002</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>265</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>266</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
         <v>267</v>
       </c>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c t="s" r="H93" s="9">
-        <v>59</v>
-      </c>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
-      <c t="s" r="L93" s="10">
-        <v>29</v>
-      </c>
-      <c r="M93" s="10"/>
-      <c t="s" r="N93" s="8">
-        <v>85</v>
-      </c>
-      <c r="O93" s="8"/>
-      <c t="s" r="P93" s="11">
-        <v>86</v>
-      </c>
-      <c t="s" r="Q93" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>5360.9250000000002</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>268</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
-        <v>269</v>
-      </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
-        <v>270</v>
-      </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4785,15 +4743,10 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -44,15 +44,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AGIOLAX 12 GRANULES IN SACHETS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>34.00</t>
   </si>
   <si>
@@ -641,6 +650,15 @@
     <t>136.5000</t>
   </si>
   <si>
+    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>TINIFLOXACIN 10 TAB.</t>
   </si>
   <si>
@@ -665,7 +683,7 @@
     <t>53.00</t>
   </si>
   <si>
-    <t>53.0000</t>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
     <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
@@ -786,9 +804,6 @@
   </si>
   <si>
     <t>50.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -1480,7 +1495,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1490,11 +1505,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>12</v>
@@ -1506,14 +1521,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1523,11 +1538,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>12</v>
@@ -1539,14 +1554,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1556,14 +1571,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1572,31 +1587,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1605,31 +1620,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1638,14 +1653,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1655,14 +1670,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1671,14 +1686,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1688,14 +1703,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1704,14 +1719,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1721,14 +1736,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1737,20 +1752,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1761,7 +1776,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1777,13 +1792,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1810,7 +1825,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1820,11 +1835,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1836,14 +1851,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1853,14 +1868,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1869,14 +1884,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1886,14 +1901,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1909,7 +1924,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1926,7 +1941,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1942,7 +1957,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1959,7 +1974,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1975,7 +1990,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1985,14 +2000,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2001,14 +2016,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2018,7 +2033,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -2041,7 +2056,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2051,14 +2066,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2067,14 +2082,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2088,10 +2103,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2100,14 +2115,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2117,11 +2132,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2140,7 +2155,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2157,7 +2172,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2173,7 +2188,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2183,14 +2198,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2199,14 +2214,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2223,7 +2238,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2239,7 +2254,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2256,7 +2271,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2272,7 +2287,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2305,7 +2320,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2319,7 +2334,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2331,14 +2346,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2348,11 +2363,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2371,7 +2386,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2388,7 +2403,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2404,7 +2419,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2421,7 +2436,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2437,7 +2452,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2447,14 +2462,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2463,14 +2478,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2480,14 +2495,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2503,13 +2518,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2520,7 +2535,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2536,13 +2551,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2553,7 +2568,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2569,7 +2584,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2586,7 +2601,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2602,7 +2617,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2612,14 +2627,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2628,14 +2643,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2645,14 +2660,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2661,14 +2676,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2685,7 +2700,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2701,7 +2716,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2718,7 +2733,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2734,7 +2749,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2751,7 +2766,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2767,7 +2782,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2781,10 +2796,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2793,14 +2808,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2810,11 +2825,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2833,7 +2848,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2850,7 +2865,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2866,7 +2881,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2883,7 +2898,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2899,7 +2914,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2909,14 +2924,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2925,14 +2940,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2942,11 +2957,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2958,7 +2973,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2975,11 +2990,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2998,7 +3013,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3012,10 +3027,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3024,14 +3039,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3041,14 +3056,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3057,14 +3072,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3074,14 +3089,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3097,7 +3112,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3107,14 +3122,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3130,7 +3145,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3144,10 +3159,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3156,14 +3171,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3173,14 +3188,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3189,14 +3204,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>174</v>
+        <v>37</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3206,14 +3221,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3222,14 +3237,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3246,7 +3261,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3262,7 +3277,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3279,7 +3294,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>183</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3288,14 +3303,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3305,14 +3320,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q63" s="12">
         <v>186</v>
-      </c>
-      <c t="s" r="Q63" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3328,13 +3343,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3361,13 +3376,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3394,7 +3409,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3404,14 +3419,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3427,7 +3442,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3437,14 +3452,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3460,7 +3475,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3493,7 +3508,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>24</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3503,11 +3518,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3519,14 +3534,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3536,11 +3551,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3552,14 +3567,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3569,11 +3584,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3592,7 +3607,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3609,7 +3624,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3625,7 +3640,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3642,7 +3657,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3658,7 +3673,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3675,7 +3690,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3691,7 +3706,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3701,14 +3716,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3717,14 +3732,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3738,10 +3753,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>203</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3750,14 +3765,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>226</v>
+        <v>28</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3767,14 +3782,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>128</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3783,14 +3798,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3800,14 +3815,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>109</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3816,31 +3831,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>83</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>17</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3849,31 +3864,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3882,28 +3897,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3915,31 +3930,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>245</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3948,28 +3963,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>152</v>
+        <v>242</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>149</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>107</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3981,31 +3996,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>249</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4014,31 +4029,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4054,21 +4069,21 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>253</v>
+        <v>152</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4080,31 +4095,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4113,31 +4128,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4146,31 +4161,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>107</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>152</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4186,21 +4201,21 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4219,24 +4234,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>242</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4245,66 +4260,165 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>5255.9250000000002</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>265</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
         <v>266</v>
       </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>12</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>32</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>29</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
         <v>267</v>
       </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c t="s" r="Q93" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>268</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>12</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>32</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>247</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>248</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>269</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>59</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>32</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>85</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>5439.9250000000002</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>270</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>271</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>272</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4743,10 +4857,25 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -821,7 +821,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 7:17 PM</t>
+    <t>Sunday, 27 July, 2025 7:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -134,642 +134,654 @@
     <t>CALAMYL LOTION 100 ML</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>49.00</t>
   </si>
   <si>
+    <t>98.0000</t>
+  </si>
+  <si>
+    <t>CALCITRON 30 CAPS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>CAPOZIDE 50/25MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>CERELAC تمر وقمح ولبن</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>CO-TAREG 160/12.5MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>CRYPTOPER 100MG/5ML PD. FOR ORAL SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DAVALINDI 10.000 I.U. 30 TABS.</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>DIASTOP SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>DIVIDO 75MG 30 DUAL RELEASE CAPS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>93.0600</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ELONE KERATIN SHAMPOO 200 ML</t>
+  </si>
+  <si>
+    <t>265.00</t>
+  </si>
+  <si>
+    <t>265.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>E-YEAST 20 CAPS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>FLIX NASAL SPRAY 50 MCG/METERED SPRAY DOSE</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FLUROFLOX 400MG 10 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>184.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>FORADIL12 MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>89.6000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GASTROBIOTIC 200 MG 20 F.C.TAB. (N/A)</t>
+  </si>
+  <si>
+    <t>169.50</t>
+  </si>
+  <si>
+    <t>84.7500</t>
+  </si>
+  <si>
+    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>GICYANO 30 F.C TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
+    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>HIDRASEC 100 MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
+    <t>ICANDRA 50 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>118.50</t>
+  </si>
+  <si>
+    <t>39.1050</t>
+  </si>
+  <si>
+    <t>IROSPECT 20 PIECES</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
     <t>49.0000</t>
   </si>
   <si>
-    <t>CALCITRON 30 CAPS.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>CAPOZIDE 50/25MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>CERELAC تمر وقمح ولبن</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CONTROLEPSY 50 MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>CO-TAREG 160/12.5MG 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>CRYPTOPER 100MG/5ML PD. FOR ORAL SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DAVALINDI 10.000 I.U. 30 TABS.</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>DIASTOP SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>DIVIDO 75MG 30 DUAL RELEASE CAPS.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>93.0600</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ELONE KERATIN SHAMPOO 200 ML</t>
-  </si>
-  <si>
-    <t>265.00</t>
-  </si>
-  <si>
-    <t>265.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>E-YEAST 20 CAPS</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>45.5400</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FLUROFLOX 400MG 10 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>184.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>FORADIL12 MG 60 CAPS</t>
-  </si>
-  <si>
-    <t>560.00</t>
-  </si>
-  <si>
-    <t>89.6000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GASTROBIOTIC 200 MG 20 F.C.TAB. (N/A)</t>
-  </si>
-  <si>
-    <t>169.50</t>
-  </si>
-  <si>
-    <t>84.7500</t>
-  </si>
-  <si>
-    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>GICYANO 30 F.C TABS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>303.00</t>
-  </si>
-  <si>
-    <t>99.9900</t>
-  </si>
-  <si>
-    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>43.5600</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>HIDRASEC 100 MG 10 CAPS.</t>
-  </si>
-  <si>
-    <t>73.00</t>
-  </si>
-  <si>
-    <t>73.0000</t>
-  </si>
-  <si>
-    <t>IROSPECT 20 PIECES</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+    <t>LUTOFOLONE 2 AMP.</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PARAGESIC 500MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>QUITAPEX 200MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>-86.1300</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REBIRTH WHITENING  CREAM</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t>SANSOVIT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>SELGON 20MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>SOOTONIC HAIR LOTION 120 ML</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>169.0000</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>SPASULANCE 62.5 MG 20 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>136.5000</t>
+  </si>
+  <si>
+    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>TINIFLOXACIN 10 TAB.</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>UNIFUNGI 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8501:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>WELLINTA 150 MG 30S.R.F.C.TABS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>291.00</t>
+  </si>
+  <si>
+    <t>483.0600</t>
+  </si>
+  <si>
+    <t>ZESTRIL 20MG 10 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>28:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>80:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LACRITEARS EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>LUTOFOLONE 2 AMP.</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>69.3000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PARAGESIC 500MG 5 SUPP.</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>67.3200</t>
-  </si>
-  <si>
-    <t>QUITAPEX 200MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>261.00</t>
-  </si>
-  <si>
-    <t>-86.1300</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>RAMIXOLE 1 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REBIRTH WHITENING  CREAM</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t>SANSOVIT PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>SELGON 20MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>SINEMET 25/250 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>SOOTONIC HAIR LOTION 120 ML</t>
-  </si>
-  <si>
-    <t>169.00</t>
-  </si>
-  <si>
-    <t>169.0000</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>SPASULANCE 62.5 MG 20 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>136.5000</t>
-  </si>
-  <si>
-    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>TINIFLOXACIN 10 TAB.</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>UNIFUNGI 150MG 2 CAPS.</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
-  </si>
-  <si>
-    <t>29.7000</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8501:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>WELLINTA 150 MG 30S.R.F.C.TABS.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>291.00</t>
-  </si>
-  <si>
-    <t>483.0600</t>
-  </si>
-  <si>
-    <t>ZESTRIL 20MG 10 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>28:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>بودره نلج اكياس</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>80:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>حنه جلوري سوده 1 كيس</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -794,6 +806,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">شاش فازلين 10*20 سم </t>
   </si>
   <si>
@@ -821,7 +842,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 7:28 PM</t>
+    <t>Sunday, 27 July, 2025 7:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1693,7 +1714,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1703,14 +1724,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1719,14 +1740,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1736,11 +1757,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>35</v>
@@ -1752,14 +1773,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1769,11 +1790,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>35</v>
@@ -1785,7 +1806,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1802,11 +1823,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1818,7 +1839,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1835,11 +1856,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1851,14 +1872,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1868,11 +1889,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1884,7 +1905,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1905,7 +1926,7 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>35</v>
@@ -1917,7 +1938,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1934,11 +1955,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>35</v>
@@ -1950,7 +1971,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1967,11 +1988,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1983,14 +2004,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2000,11 +2021,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>35</v>
@@ -2016,7 +2037,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2037,7 +2058,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2049,7 +2070,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2066,11 +2087,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2082,14 +2103,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2099,11 +2120,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>35</v>
@@ -2115,7 +2136,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2132,7 +2153,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2148,7 +2169,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2165,11 +2186,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2181,14 +2202,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2198,11 +2219,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>35</v>
@@ -2214,14 +2235,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2231,14 +2252,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2247,14 +2268,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2264,14 +2285,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2280,7 +2301,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2297,11 +2318,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2313,7 +2334,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2330,11 +2351,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2346,7 +2367,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2363,11 +2384,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2379,14 +2400,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2396,11 +2417,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2412,7 +2433,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2429,11 +2450,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>35</v>
@@ -2445,7 +2466,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2462,11 +2483,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>35</v>
@@ -2478,14 +2499,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2495,14 +2516,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2528,11 +2549,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>35</v>
@@ -2544,28 +2565,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>35</v>
@@ -2577,31 +2598,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2610,14 +2631,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2627,14 +2648,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2643,7 +2664,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2660,14 +2681,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2683,7 +2704,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2693,14 +2714,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2709,14 +2730,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2726,11 +2747,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>35</v>
@@ -2742,14 +2763,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2759,14 +2780,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2775,14 +2796,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2792,14 +2813,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2808,14 +2829,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2825,14 +2846,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2848,7 +2869,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2862,7 +2883,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2874,14 +2895,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2891,14 +2912,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2907,14 +2928,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2924,14 +2945,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2940,14 +2961,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2957,14 +2978,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2973,14 +2994,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2990,14 +3011,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3013,7 +3034,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3027,10 +3048,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3039,14 +3060,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3056,14 +3077,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3072,14 +3093,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3089,14 +3110,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3112,7 +3133,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3122,14 +3143,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3138,14 +3159,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3155,14 +3176,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3171,14 +3192,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3188,11 +3209,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3204,14 +3225,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3221,14 +3242,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3244,7 +3265,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3254,11 +3275,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3270,14 +3291,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3287,14 +3308,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3303,14 +3324,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3320,14 +3341,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>186</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3336,7 +3357,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3353,14 +3374,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3369,31 +3390,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3402,14 +3423,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3419,11 +3440,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3435,31 +3456,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>85</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3468,14 +3489,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3485,11 +3506,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3501,14 +3522,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>24</v>
+        <v>201</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3518,14 +3539,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>84</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3534,14 +3555,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3551,11 +3572,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3567,7 +3588,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3584,11 +3605,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3600,14 +3621,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3640,7 +3661,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3650,14 +3671,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3666,14 +3687,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3683,14 +3704,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3699,14 +3720,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3716,11 +3737,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>35</v>
@@ -3732,14 +3753,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3749,14 +3770,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3765,14 +3786,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3782,14 +3803,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>89</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3805,7 +3826,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3815,14 +3836,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>109</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3838,7 +3859,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>28</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3848,14 +3869,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>206</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3864,14 +3885,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>48</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3881,14 +3902,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>108</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>131</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3897,14 +3918,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3914,14 +3935,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3930,31 +3951,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>86</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3963,28 +3984,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3996,14 +4017,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4013,14 +4034,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4029,14 +4050,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>24</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4046,14 +4067,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4062,14 +4083,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4079,11 +4100,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>110</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4095,7 +4116,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4112,14 +4133,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>255</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4128,14 +4149,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4145,11 +4166,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>157</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4161,7 +4182,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4178,14 +4199,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4194,14 +4215,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4211,11 +4232,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4227,14 +4248,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4244,14 +4265,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>15</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4267,7 +4288,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>24</v>
+        <v>266</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4277,14 +4298,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4293,14 +4314,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4310,11 +4331,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>29</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4326,14 +4347,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4343,14 +4364,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>248</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4359,14 +4380,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4376,49 +4397,148 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>85</v>
+        <v>243</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>256</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>5439.9250000000002</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>270</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
-        <v>271</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
-        <v>272</v>
-      </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>273</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>12</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>32</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>29</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>274</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>275</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>12</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>32</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>250</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>276</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>58</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>32</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>84</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>5692.0299999999997</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>277</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>278</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>279</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4872,10 +4992,25 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -842,7 +842,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 7:41 PM</t>
+    <t>Sunday, 27 July, 2025 7:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -842,7 +842,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 7:57 PM</t>
+    <t>Sunday, 27 July, 2025 7:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3793,7 +3793,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -104,6 +104,21 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANTODINE20    6 AMP</t>
   </si>
   <si>
@@ -116,9 +131,6 @@
     <t>12.4800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
@@ -158,12 +170,6 @@
     <t>0:2</t>
   </si>
   <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
     <t>CERELAC تمر وقمح ولبن</t>
   </si>
   <si>
@@ -218,6 +224,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>CYMBATEX 60 MG 30 CAP</t>
+  </si>
+  <si>
+    <t>295.50</t>
+  </si>
+  <si>
+    <t>97.5150</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -545,6 +560,9 @@
     <t>31.00</t>
   </si>
   <si>
+    <t>OPTIDEX -T EYE DROPS 5 ML</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -662,6 +680,12 @@
     <t>136.5000</t>
   </si>
   <si>
+    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
     <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
   </si>
   <si>
@@ -842,7 +866,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 7:58 PM</t>
+    <t>Sunday, 27 July, 2025 8:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1648,13 +1672,13 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1681,13 +1705,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1714,7 +1738,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1724,14 +1748,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1740,14 +1764,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1764,7 +1788,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1813,24 +1837,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1839,28 +1863,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1872,14 +1896,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1889,11 +1913,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1905,14 +1929,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1922,14 +1946,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1955,11 +1979,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>35</v>
@@ -1971,14 +1995,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1988,14 +2012,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2004,14 +2028,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2021,14 +2045,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2037,14 +2061,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2054,14 +2078,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2077,7 +2101,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2094,7 +2118,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2110,7 +2134,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2120,14 +2144,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2136,14 +2160,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2153,11 +2177,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2169,14 +2193,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2193,7 +2217,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2209,7 +2233,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2223,10 +2247,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2235,14 +2259,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2252,14 +2276,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2268,14 +2292,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2285,14 +2309,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2301,14 +2325,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2318,14 +2342,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2334,14 +2358,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2351,14 +2375,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2367,14 +2391,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2384,11 +2408,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2407,7 +2431,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2440,7 +2464,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2454,10 +2478,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2466,14 +2490,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2483,14 +2507,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2499,14 +2523,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2516,14 +2540,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2532,14 +2556,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2549,7 +2573,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2572,7 +2596,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2589,7 +2613,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2605,21 +2629,21 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>35</v>
@@ -2631,14 +2655,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2648,14 +2672,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2664,28 +2688,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>35</v>
@@ -2697,14 +2721,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2714,7 +2738,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2737,7 +2761,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2747,11 +2771,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>35</v>
@@ -2763,14 +2787,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2780,14 +2804,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2796,14 +2820,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2813,14 +2837,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2829,14 +2853,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2846,11 +2870,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>35</v>
@@ -2862,14 +2886,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2879,14 +2903,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2902,7 +2926,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2919,7 +2943,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2935,7 +2959,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2949,10 +2973,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2961,14 +2985,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2978,14 +3002,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2994,14 +3018,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3011,14 +3035,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3027,14 +3051,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3044,14 +3068,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3067,7 +3091,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3077,14 +3101,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3093,14 +3117,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3110,14 +3134,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3133,7 +3157,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3143,14 +3167,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3166,7 +3190,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3176,14 +3200,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3192,14 +3216,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3209,14 +3233,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3232,7 +3256,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3242,14 +3266,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3258,14 +3282,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>28</v>
+        <v>176</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3275,11 +3299,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3298,7 +3322,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3308,14 +3332,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3324,14 +3348,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3345,7 +3369,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3357,14 +3381,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3374,14 +3398,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3390,14 +3414,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3407,14 +3431,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>190</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3423,14 +3447,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>35</v>
+        <v>187</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3440,11 +3464,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3456,31 +3480,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3489,14 +3513,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3506,14 +3530,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3522,14 +3546,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>35</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3539,14 +3563,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3555,7 +3579,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3568,15 +3592,15 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3588,14 +3612,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3605,11 +3629,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3621,14 +3645,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3638,14 +3662,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>89</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3654,7 +3678,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3671,11 +3695,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3687,14 +3711,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3704,11 +3728,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3720,14 +3744,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3737,14 +3761,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3753,7 +3777,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3770,14 +3794,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>113</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3786,14 +3810,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3803,14 +3827,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3819,14 +3843,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3836,14 +3860,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3852,14 +3876,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3869,14 +3893,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>88</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3892,7 +3916,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3902,11 +3926,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>108</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>35</v>
@@ -3925,7 +3949,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3935,14 +3959,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>210</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3951,14 +3975,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3968,14 +3992,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>133</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3984,14 +4008,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4001,11 +4025,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4017,31 +4041,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>113</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>85</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4050,31 +4074,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4083,31 +4107,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4116,7 +4140,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4129,18 +4153,18 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4149,31 +4173,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>157</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4182,31 +4206,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>24</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>259</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4215,28 +4239,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>24</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4248,7 +4272,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4261,18 +4285,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4281,28 +4305,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>267</v>
+        <v>162</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>254</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4314,31 +4338,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>267</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4347,31 +4371,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4380,7 +4404,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4393,18 +4417,18 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>109</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>256</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4420,21 +4444,21 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>29</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4446,28 +4470,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4479,66 +4503,198 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>84</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>5692.0299999999997</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>277</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
-        <v>278</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
-        <v>279</v>
-      </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>280</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>24</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>37</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>251</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>281</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>12</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>37</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>29</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>282</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>283</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>12</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>37</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>258</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>284</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>60</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>37</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>89</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>5892.9849999999997</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>285</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>286</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>287</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5007,10 +5163,30 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -866,7 +866,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 8:15 PM</t>
+    <t>Sunday, 27 July, 2025 8:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -308,10 +308,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>7:2</t>
+  </si>
+  <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>31.6800</t>
+    <t>0:3</t>
   </si>
   <si>
     <t>ELICA-M CREAM 30 GRAM</t>
@@ -332,6 +335,15 @@
     <t>265.0000</t>
   </si>
   <si>
+    <t>ENRICH ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -356,6 +368,18 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>FERROTRON 30 CAPS</t>
   </si>
   <si>
@@ -518,12 +542,6 @@
     <t>LUTOFOLONE 2 AMP.</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
   </si>
   <si>
@@ -569,6 +587,12 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
     <t>PARAGESIC 500MG 5 SUPP.</t>
   </si>
   <si>
@@ -725,6 +749,18 @@
     <t>29.7000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -740,9 +776,6 @@
     <t>WELLINTA 150 MG 30S.R.F.C.TABS.</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>291.00</t>
   </si>
   <si>
@@ -809,10 +842,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>9:0</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -866,7 +896,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 8:31 PM</t>
+    <t>Sunday, 27 July, 2025 8:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2365,7 +2395,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2375,14 +2405,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>52</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2391,7 +2421,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2408,11 +2438,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2424,7 +2454,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2441,11 +2471,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2457,14 +2487,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2474,11 +2504,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2490,14 +2520,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2507,11 +2537,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2523,14 +2553,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2540,14 +2570,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2556,14 +2586,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2573,11 +2603,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>35</v>
@@ -2589,14 +2619,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2606,14 +2636,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2622,14 +2652,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2639,11 +2669,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>35</v>
@@ -2655,14 +2685,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2672,14 +2702,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2688,28 +2718,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>35</v>
@@ -2721,14 +2751,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2738,14 +2768,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2754,28 +2784,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>35</v>
@@ -2787,14 +2817,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2804,11 +2834,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2820,14 +2850,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2837,11 +2867,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>35</v>
@@ -2853,14 +2883,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2870,14 +2900,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2886,14 +2916,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2903,14 +2933,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2919,14 +2949,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2936,11 +2966,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>35</v>
@@ -2952,14 +2982,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2969,14 +2999,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2985,14 +3015,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3002,14 +3032,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3018,14 +3048,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3035,14 +3065,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3051,14 +3081,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3068,14 +3098,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3084,14 +3114,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3101,14 +3131,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3117,14 +3147,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3134,14 +3164,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3150,14 +3180,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3167,14 +3197,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3183,14 +3213,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3200,14 +3230,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3216,14 +3246,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3233,14 +3263,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3249,14 +3279,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3266,14 +3296,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3282,14 +3312,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3299,14 +3329,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3315,14 +3345,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3332,14 +3362,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3355,7 +3385,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3365,11 +3395,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3381,14 +3411,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3398,14 +3428,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3414,14 +3444,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3431,14 +3461,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3447,14 +3477,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>187</v>
+        <v>24</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3464,11 +3494,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3487,7 +3517,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3497,14 +3527,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3513,31 +3543,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>95</v>
+        <v>193</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>120</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>196</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3546,14 +3576,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>35</v>
+        <v>195</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3563,11 +3593,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3579,31 +3609,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3612,14 +3642,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3629,14 +3659,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3645,14 +3675,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>35</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3662,14 +3692,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3678,7 +3708,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3691,15 +3721,15 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3711,14 +3741,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3728,11 +3758,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3744,14 +3774,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3761,14 +3791,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>89</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3777,7 +3807,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3794,11 +3824,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>163</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3817,7 +3847,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3850,7 +3880,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>48</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3860,14 +3890,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>108</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3876,14 +3906,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3893,14 +3923,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>117</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3916,7 +3946,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3930,10 +3960,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3942,14 +3972,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3959,14 +3989,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3982,7 +4012,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3996,10 +4026,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4008,14 +4038,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4025,14 +4055,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4041,14 +4071,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4058,14 +4088,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4074,14 +4104,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>239</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4091,14 +4121,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>216</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4107,14 +4137,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>28</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4124,14 +4154,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4140,14 +4170,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4157,14 +4187,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>117</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4173,31 +4203,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>90</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4206,31 +4236,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4239,31 +4269,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>193</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4272,7 +4302,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4285,18 +4315,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4305,14 +4335,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4322,14 +4352,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>162</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4338,14 +4368,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>24</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4355,14 +4385,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>267</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4371,14 +4401,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>24</v>
+        <v>268</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4388,11 +4418,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4404,7 +4434,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4421,14 +4451,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4437,14 +4467,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4454,11 +4484,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>170</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>262</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4477,7 +4507,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4487,14 +4517,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4510,7 +4540,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4520,14 +4550,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>15</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4553,14 +4583,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>114</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>264</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4569,14 +4599,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4586,11 +4616,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4602,14 +4632,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4619,11 +4649,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4635,14 +4665,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4652,49 +4682,181 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>89</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>290</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>24</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>37</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>262</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>291</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>12</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>37</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>29</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>293</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>12</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>37</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>269</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>294</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>60</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>37</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>89</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
         <v>90</v>
       </c>
-      <c t="s" r="Q102" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>5892.9849999999997</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>285</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
-        <v>286</v>
-      </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
-        <v>287</v>
-      </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c t="s" r="Q106" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>6030.2950000000001</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
+        <v>295</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>296</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>297</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5183,10 +5345,30 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -131,6 +131,24 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>BETOLVEX 1MG/ML 2 PRE-FILLED SYRINGE I.M.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>BIONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
@@ -179,6 +197,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">CHROMOCHIT  CAPS</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>72.6000</t>
+  </si>
+  <si>
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
@@ -215,6 +242,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>C-RETARD 500MG 10 CAPS</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>CRYPTOPER 100MG/5ML PD. FOR ORAL SUSP. 60ML</t>
   </si>
   <si>
@@ -248,6 +284,15 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
@@ -734,6 +779,12 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>TRUEVERA SCRUB CREAM</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>UNIFUNGI 150MG 2 CAPS.</t>
   </si>
   <si>
@@ -743,6 +794,9 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
+    <t xml:space="preserve">VANCE  30 TAB</t>
+  </si>
+  <si>
     <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
   </si>
   <si>
@@ -842,13 +896,16 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>10:0</t>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>12:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>سرنجه دواء</t>
@@ -863,9 +920,6 @@
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
-    <t>12:0</t>
-  </si>
-  <si>
     <t>6.00</t>
   </si>
   <si>
@@ -885,9 +939,6 @@
   </si>
   <si>
     <t>محلول رينجر</t>
-  </si>
-  <si>
-    <t>24.0000</t>
   </si>
   <si>
     <t>ملك العود مسك</t>
@@ -1768,7 +1819,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1778,14 +1829,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1794,14 +1845,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1811,14 +1862,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1827,14 +1878,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1844,11 +1895,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>35</v>
@@ -1860,14 +1911,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1877,14 +1928,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1900,24 +1951,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1926,14 +1977,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1943,14 +1994,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1966,21 +2017,21 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1992,7 +2043,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2005,11 +2056,11 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
@@ -2049,7 +2100,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2065,7 +2116,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2075,11 +2126,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -2091,14 +2142,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2108,7 +2159,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -2131,7 +2182,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2174,11 +2225,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2190,7 +2241,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2207,11 +2258,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2223,14 +2274,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2263,7 +2314,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2277,10 +2328,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2289,7 +2340,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2306,7 +2357,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2329,7 +2380,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2346,7 +2397,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2362,7 +2413,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2372,14 +2423,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2388,14 +2439,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2405,14 +2456,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>101</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2421,7 +2472,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2438,11 +2489,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2454,7 +2505,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2471,11 +2522,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2487,14 +2538,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2504,14 +2555,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2520,14 +2571,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2537,14 +2588,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2560,7 +2611,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2570,14 +2621,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2586,14 +2637,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2603,14 +2654,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2619,14 +2670,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2636,14 +2687,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>122</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2676,7 +2727,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2692,7 +2743,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2706,7 +2757,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2718,14 +2769,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2735,14 +2786,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2791,13 +2842,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2808,7 +2859,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>35</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2817,14 +2868,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2834,14 +2885,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2850,14 +2901,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2867,14 +2918,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2883,14 +2934,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2900,14 +2951,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2916,14 +2967,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2956,13 +3007,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2989,7 +3040,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3006,7 +3057,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3022,7 +3073,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3055,7 +3106,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3065,11 +3116,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3088,7 +3139,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3098,14 +3149,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3114,14 +3165,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3131,11 +3182,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>35</v>
@@ -3147,14 +3198,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3164,14 +3215,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3180,14 +3231,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3197,14 +3248,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3213,14 +3264,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3230,14 +3281,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3246,14 +3297,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3263,11 +3314,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3279,14 +3330,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3296,14 +3347,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3312,14 +3363,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3329,14 +3380,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>50</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3345,14 +3396,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3362,14 +3413,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3378,14 +3429,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3395,14 +3446,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3411,7 +3462,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3428,14 +3479,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>51</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3444,14 +3495,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3461,11 +3512,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3477,14 +3528,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3494,14 +3545,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3510,14 +3561,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3527,14 +3578,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3543,31 +3594,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3576,14 +3627,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3593,14 +3644,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3609,14 +3660,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3626,14 +3677,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3642,14 +3693,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3659,14 +3710,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>204</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3682,7 +3733,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3692,14 +3743,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3708,14 +3759,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3725,14 +3776,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>135</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3741,14 +3792,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3758,11 +3809,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3774,14 +3825,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>35</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3791,11 +3842,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>35</v>
@@ -3807,14 +3858,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3824,14 +3875,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q76" s="12">
         <v>219</v>
-      </c>
-      <c t="s" r="Q76" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3847,7 +3898,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3880,21 +3931,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3906,14 +3957,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3923,11 +3974,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3939,14 +3990,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>48</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3956,14 +4007,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>104</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3972,14 +4023,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3989,14 +4040,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>112</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4005,14 +4056,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4022,14 +4073,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4038,14 +4089,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4055,14 +4106,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>128</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4071,14 +4122,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4088,14 +4139,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>132</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4104,14 +4155,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4121,11 +4172,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4137,14 +4188,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4154,14 +4205,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>93</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4170,14 +4221,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4187,11 +4238,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>35</v>
@@ -4203,14 +4254,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>24</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4220,11 +4271,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>35</v>
@@ -4236,14 +4287,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4253,14 +4304,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>224</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4269,14 +4320,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4286,14 +4337,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>146</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4302,14 +4353,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4319,11 +4370,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4342,24 +4393,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>261</v>
+        <v>28</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4368,14 +4419,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>24</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4385,11 +4436,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>41</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4401,31 +4452,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>268</v>
+        <v>58</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>132</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4434,31 +4485,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>24</v>
+        <v>265</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4467,31 +4518,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>118</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4500,31 +4551,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>277</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4533,7 +4584,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4546,15 +4597,15 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4566,14 +4617,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>24</v>
+        <v>279</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4583,14 +4634,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4599,14 +4650,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4616,11 +4667,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4632,14 +4683,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>28</v>
+        <v>286</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4653,7 +4704,7 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4665,14 +4716,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4682,11 +4733,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4698,14 +4749,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>24</v>
+        <v>293</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4715,14 +4766,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>262</v>
+        <v>185</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>275</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4731,14 +4782,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4748,14 +4799,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>29</v>
+        <v>270</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>296</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4764,14 +4815,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4781,14 +4832,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4797,14 +4848,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4814,49 +4865,280 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>89</v>
+        <v>300</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>90</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>6030.2950000000001</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>302</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>296</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>37</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>303</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>291</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>304</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>28</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>37</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>305</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>306</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>20</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>37</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>307</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>308</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>24</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>37</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>280</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>309</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>12</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>37</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>29</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
         <v>295</v>
       </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
-        <v>296</v>
-      </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
-        <v>297</v>
-      </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c t="s" r="Q111" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>310</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>12</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>37</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>287</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>288</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>311</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>69</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>37</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>104</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>6722.8950000000004</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>312</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>313</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>314</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5365,10 +5647,45 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -597,6 +597,15 @@
   </si>
   <si>
     <t>37.6200</t>
+  </si>
+  <si>
+    <t>NASSAR 12*8 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>156.00</t>
   </si>
   <si>
     <t>NEUROTON 6 AMP</t>
@@ -3611,14 +3620,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3634,7 +3643,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3644,14 +3653,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3667,7 +3676,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3681,10 +3690,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3693,14 +3702,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3710,11 +3719,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>115</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3726,14 +3735,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3743,14 +3752,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3759,31 +3768,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>47</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3792,31 +3801,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3825,14 +3834,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3849,7 +3858,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3865,7 +3874,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3882,7 +3891,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>219</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3891,14 +3900,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3908,14 +3917,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>222</v>
-      </c>
-      <c t="s" r="Q77" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3931,13 +3940,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3964,13 +3973,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3997,7 +4006,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4007,14 +4016,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4030,7 +4039,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4040,14 +4049,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4096,7 +4105,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4106,11 +4115,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4122,14 +4131,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>24</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4139,11 +4148,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>132</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4155,14 +4164,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4172,11 +4181,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>132</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4205,14 +4214,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>127</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4221,14 +4230,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4238,7 +4247,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>127</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4261,7 +4270,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4275,7 +4284,7 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>143</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>35</v>
@@ -4287,14 +4296,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4304,14 +4313,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4327,7 +4336,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4337,14 +4346,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4353,14 +4362,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4370,11 +4379,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>203</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4386,14 +4395,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4403,11 +4412,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>108</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4419,28 +4428,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4452,31 +4461,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4485,14 +4494,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>265</v>
+        <v>58</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4502,11 +4511,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>132</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>35</v>
@@ -4518,14 +4527,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4535,14 +4544,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>239</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4551,14 +4560,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4575,7 +4584,7 @@
         <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>161</v>
+        <v>242</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4591,7 +4600,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>24</v>
+        <v>211</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4608,7 +4617,7 @@
         <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4624,24 +4633,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>279</v>
+        <v>24</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>105</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4671,10 +4680,10 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4683,14 +4692,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4700,11 +4709,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4716,14 +4725,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>24</v>
+        <v>289</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4740,7 +4749,7 @@
         <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4756,7 +4765,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>293</v>
+        <v>24</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4766,14 +4775,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>185</v>
+        <v>293</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>133</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4782,14 +4791,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>24</v>
+        <v>296</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4799,14 +4808,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>270</v>
+        <v>185</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>295</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>296</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4832,14 +4841,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4848,7 +4857,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4865,14 +4874,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>301</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4888,7 +4897,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>296</v>
+        <v>24</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4902,7 +4911,7 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4914,14 +4923,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>28</v>
+        <v>299</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4931,11 +4940,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4947,14 +4956,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4964,14 +4973,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>15</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4980,14 +4989,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4997,14 +5006,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>293</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5013,14 +5022,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5030,14 +5039,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>29</v>
+        <v>283</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>295</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>296</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5046,7 +5055,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5063,11 +5072,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>287</v>
+        <v>29</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5079,14 +5088,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5096,49 +5105,82 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>104</v>
+        <v>290</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
+        <v>291</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>314</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>69</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>37</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>104</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
         <v>105</v>
       </c>
-      <c t="s" r="Q113" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>6722.8950000000004</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
-        <v>312</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
-        <v>313</v>
-      </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
-        <v>314</v>
-      </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c t="s" r="Q114" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>6735.375</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>315</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>316</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>317</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5682,10 +5724,15 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -267,6 +267,15 @@
   </si>
   <si>
     <t>97.5150</t>
+  </si>
+  <si>
+    <t>DAKTARIN 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
   </si>
   <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
@@ -2323,7 +2332,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2340,7 +2349,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2356,7 +2365,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2366,14 +2375,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2382,14 +2391,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2399,7 +2408,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2422,7 +2431,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2455,7 +2464,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2465,14 +2474,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2481,14 +2490,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2502,10 +2511,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2514,14 +2523,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2531,11 +2540,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2554,7 +2563,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2571,7 +2580,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2587,7 +2596,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2597,14 +2606,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2613,14 +2622,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2630,14 +2639,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2646,14 +2655,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2667,10 +2676,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>119</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2686,7 +2695,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2719,7 +2728,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2752,7 +2761,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2766,7 +2775,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2778,14 +2787,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2795,11 +2804,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2818,7 +2827,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2835,7 +2844,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2851,7 +2860,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2868,7 +2877,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>137</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2877,14 +2886,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2894,14 +2903,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>140</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2934,7 +2943,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2950,7 +2959,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2960,14 +2969,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2976,7 +2985,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2993,7 +3002,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -3016,13 +3025,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3049,13 +3058,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3066,7 +3075,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3082,7 +3091,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3099,7 +3108,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3125,14 +3134,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3141,14 +3150,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3158,14 +3167,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3174,14 +3183,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3214,7 +3223,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3231,7 +3240,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3247,7 +3256,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3264,7 +3273,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3280,7 +3289,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3294,10 +3303,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3306,14 +3315,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3323,11 +3332,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3346,7 +3355,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3363,7 +3372,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3379,7 +3388,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3412,7 +3421,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3429,7 +3438,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3445,7 +3454,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3459,7 +3468,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3471,14 +3480,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3488,14 +3497,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>51</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3504,7 +3513,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3521,11 +3530,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3537,14 +3546,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3554,14 +3563,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3570,7 +3579,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3587,14 +3596,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3603,14 +3612,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>197</v>
+        <v>58</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3620,11 +3629,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>35</v>
@@ -3653,14 +3662,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3676,7 +3685,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3686,14 +3695,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3709,7 +3718,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3723,10 +3732,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3735,14 +3744,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3752,11 +3761,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>115</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3768,14 +3777,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3785,14 +3794,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3801,31 +3810,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>47</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>49</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3834,31 +3843,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3867,14 +3876,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>35</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3891,7 +3900,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3907,7 +3916,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3924,7 +3933,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>222</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3933,14 +3942,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3950,14 +3959,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q78" s="12">
         <v>225</v>
-      </c>
-      <c t="s" r="Q78" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3973,13 +3982,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -4006,13 +4015,13 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -4039,7 +4048,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4049,14 +4058,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>104</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4072,7 +4081,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>24</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4082,14 +4091,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>107</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4138,7 +4147,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4148,11 +4157,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4164,14 +4173,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>24</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4181,11 +4190,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>132</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4197,14 +4206,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4214,11 +4223,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>135</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4247,14 +4256,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>127</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4263,14 +4272,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4280,7 +4289,7 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>130</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4303,7 +4312,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4317,7 +4326,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>35</v>
@@ -4329,14 +4338,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4346,14 +4355,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4369,7 +4378,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4379,14 +4388,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4395,14 +4404,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4412,11 +4421,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4428,14 +4437,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4445,11 +4454,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4461,28 +4470,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4494,31 +4503,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4527,14 +4536,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>268</v>
+        <v>58</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4544,11 +4553,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>135</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>35</v>
@@ -4560,14 +4569,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4577,14 +4586,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>242</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4593,14 +4602,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>211</v>
+        <v>275</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4617,7 +4626,7 @@
         <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>161</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4633,7 +4642,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4650,7 +4659,7 @@
         <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>164</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4666,24 +4675,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>282</v>
+        <v>24</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>105</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4713,10 +4722,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4725,14 +4734,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4742,11 +4751,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4758,14 +4767,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>24</v>
+        <v>292</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4782,7 +4791,7 @@
         <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4798,7 +4807,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>296</v>
+        <v>24</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4808,14 +4817,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>185</v>
+        <v>296</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>133</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4824,14 +4833,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>24</v>
+        <v>299</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4841,14 +4850,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>273</v>
+        <v>188</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>298</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>299</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4874,14 +4883,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>301</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4890,7 +4899,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4907,14 +4916,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>299</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4930,7 +4939,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>299</v>
+        <v>24</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4944,7 +4953,7 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4956,14 +4965,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>28</v>
+        <v>302</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4973,11 +4982,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4989,14 +4998,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5006,14 +5015,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>15</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5022,14 +5031,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5039,14 +5048,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>296</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5055,14 +5064,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5072,14 +5081,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>29</v>
+        <v>286</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>298</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>299</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5088,7 +5097,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5105,11 +5114,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>290</v>
+        <v>29</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5121,14 +5130,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5138,49 +5147,82 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>104</v>
+        <v>293</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>105</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>6735.375</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>315</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
-        <v>316</v>
-      </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
         <v>317</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>69</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>37</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>107</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>6763.375</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>318</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>319</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>320</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5729,10 +5771,15 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -965,7 +965,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 8:37 PM</t>
+    <t>Sunday, 27 July, 2025 8:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -92,6 +92,21 @@
     <t>10.5000</t>
   </si>
   <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -116,9 +131,6 @@
     <t>30.6900</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t xml:space="preserve">ANTODINE20    6 AMP</t>
   </si>
   <si>
@@ -131,6 +143,18 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>ASPOCID 75MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
     <t>BETOLVEX 1MG/ML 2 PRE-FILLED SYRINGE I.M.</t>
   </si>
   <si>
@@ -152,9 +176,6 @@
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>54.00</t>
   </si>
   <si>
@@ -221,9 +242,6 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
     <t>33.0000</t>
   </si>
   <si>
@@ -374,9 +392,6 @@
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
-    <t>52.00</t>
-  </si>
-  <si>
     <t>52.0000</t>
   </si>
   <si>
@@ -602,6 +617,15 @@
     <t>72.00</t>
   </si>
   <si>
+    <t>METROHALER 12 MCG 30 CAP+INHALER</t>
+  </si>
+  <si>
+    <t>172.00</t>
+  </si>
+  <si>
+    <t>56.7600</t>
+  </si>
+  <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
@@ -665,9 +689,6 @@
     <t>26.00</t>
   </si>
   <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
   </si>
   <si>
@@ -863,6 +884,15 @@
     <t>68.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -965,7 +995,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 8:43 PM</t>
+    <t>Sunday, 27 July, 2025 9:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1755,7 +1785,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1764,14 +1794,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1781,14 +1811,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1804,13 +1834,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1821,7 +1851,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1843,18 +1873,18 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1863,14 +1893,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1880,14 +1910,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1896,14 +1926,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1913,14 +1943,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1929,14 +1959,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1946,14 +1976,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1962,14 +1992,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1986,7 +2016,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2002,7 +2032,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2012,14 +2042,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2028,31 +2058,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2061,31 +2091,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2094,28 +2124,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -2127,20 +2157,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2151,7 +2181,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2167,7 +2197,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2177,14 +2207,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2193,14 +2223,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2210,14 +2240,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2226,14 +2256,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2243,14 +2273,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2266,7 +2296,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2283,7 +2313,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2299,7 +2329,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2316,7 +2346,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2332,7 +2362,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2365,7 +2395,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2382,7 +2412,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2398,7 +2428,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2408,11 +2438,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2424,14 +2454,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2441,14 +2471,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2457,7 +2487,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2474,7 +2504,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2497,7 +2527,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2507,14 +2537,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2523,14 +2553,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2540,11 +2570,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2563,7 +2593,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2573,14 +2603,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2589,14 +2619,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2606,14 +2636,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2629,7 +2659,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2639,14 +2669,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2655,14 +2685,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2672,14 +2702,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>119</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2688,14 +2718,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2705,14 +2735,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2721,14 +2751,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2742,10 +2772,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>125</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2761,7 +2791,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2771,11 +2801,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2787,7 +2817,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2804,11 +2834,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2827,7 +2857,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2860,7 +2890,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2874,10 +2904,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2886,14 +2916,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2903,14 +2933,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>140</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2919,14 +2949,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2936,14 +2966,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2952,14 +2982,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2969,14 +2999,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2985,14 +3015,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3002,14 +3032,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3025,7 +3055,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3042,7 +3072,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3058,24 +3088,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3084,14 +3114,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3101,14 +3131,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3117,31 +3147,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3150,14 +3180,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3167,7 +3197,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3190,7 +3220,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3200,14 +3230,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3216,14 +3246,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3233,14 +3263,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3249,14 +3279,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3266,14 +3296,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3282,14 +3312,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3299,14 +3329,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3315,14 +3345,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3332,14 +3362,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3355,7 +3385,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3372,7 +3402,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3388,7 +3418,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3402,10 +3432,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3414,14 +3444,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3431,14 +3461,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3447,14 +3477,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3464,14 +3494,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3480,14 +3510,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3497,14 +3527,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3520,7 +3550,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3530,14 +3560,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3546,14 +3576,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3563,14 +3593,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3579,14 +3609,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3596,14 +3626,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>56</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3612,14 +3642,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3633,10 +3663,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3645,14 +3675,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3666,10 +3696,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3685,7 +3715,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>61</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3695,14 +3725,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3718,7 +3748,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3728,14 +3758,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3744,14 +3774,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3765,10 +3795,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3784,7 +3814,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>24</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3794,11 +3824,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3810,14 +3840,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3827,14 +3857,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3843,31 +3873,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>214</v>
+        <v>33</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3876,14 +3906,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>24</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3893,11 +3923,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>124</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3916,7 +3946,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3926,14 +3956,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3942,31 +3972,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>143</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>225</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3975,14 +4005,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3992,11 +4022,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4008,31 +4038,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4041,14 +4071,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4058,14 +4088,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4074,14 +4104,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>31</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4091,14 +4121,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>107</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4107,7 +4137,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4120,15 +4150,15 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4140,14 +4170,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4157,11 +4187,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4173,14 +4203,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4190,14 +4220,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>113</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4206,7 +4236,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4223,11 +4253,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>135</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>189</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4239,14 +4269,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4256,11 +4286,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4272,14 +4302,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>54</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4289,14 +4319,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4305,14 +4335,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4322,14 +4352,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>140</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4338,14 +4368,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4355,14 +4385,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>146</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4378,7 +4408,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4388,14 +4418,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>135</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4404,14 +4434,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4421,14 +4451,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4444,7 +4474,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4458,10 +4488,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4477,7 +4507,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4487,14 +4517,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>111</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4503,7 +4533,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4516,15 +4546,15 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>42</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4536,14 +4566,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4553,14 +4583,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>135</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4569,14 +4599,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>33</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4586,14 +4616,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4609,24 +4639,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>275</v>
+        <v>24</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>49</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>245</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4635,14 +4665,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>214</v>
+        <v>65</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4652,14 +4682,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>140</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>164</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4668,14 +4698,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>24</v>
+        <v>278</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4685,14 +4715,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4701,31 +4731,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>108</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4734,31 +4764,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>288</v>
+        <v>222</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4767,28 +4797,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>292</v>
+        <v>24</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4800,31 +4830,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4833,31 +4863,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>188</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4866,31 +4896,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>302</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4899,31 +4929,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>24</v>
+        <v>302</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>299</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4945,7 +4975,7 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
@@ -4956,7 +4986,7 @@
         <v>307</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4972,21 +5002,21 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>309</v>
+        <v>193</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>297</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5005,24 +5035,24 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>312</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5031,31 +5061,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>15</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>20</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5064,7 +5094,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5077,18 +5107,18 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>136</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>299</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5097,28 +5127,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>312</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5130,28 +5160,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5163,66 +5193,198 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>107</v>
+        <v>323</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>6763.375</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>318</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>319</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
-        <v>320</v>
-      </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>324</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>24</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>41</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>296</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>325</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>12</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>41</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>34</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>311</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>326</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>12</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>41</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>303</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>304</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>327</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>76</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>41</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>113</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>6953.0249999999996</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>328</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>329</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>330</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5776,10 +5938,30 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -995,7 +995,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 9:03 PM</t>
+    <t>Sunday, 27 July, 2025 9:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -236,6 +236,18 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -347,6 +359,15 @@
     <t>27.00</t>
   </si>
   <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>DIASTOP SUSP. 60ML</t>
   </si>
   <si>
@@ -440,9 +461,6 @@
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>35.6400</t>
   </si>
   <si>
@@ -470,9 +488,6 @@
     <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
   </si>
   <si>
-    <t>72.0000</t>
-  </si>
-  <si>
     <t>FLUROFLOX 400MG 10 F.C. TABS.</t>
   </si>
   <si>
@@ -518,9 +533,6 @@
     <t>GICYANO 30 F.C TABS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>180.00</t>
   </si>
   <si>
@@ -614,9 +626,6 @@
     <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>METROHALER 12 MCG 30 CAP+INHALER</t>
   </si>
   <si>
@@ -995,7 +1004,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 9:10 PM</t>
+    <t>Sunday, 27 July, 2025 9:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2240,11 +2249,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2256,14 +2265,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2273,14 +2282,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2289,7 +2298,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2306,11 +2315,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>31</v>
@@ -2322,14 +2331,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2339,14 +2348,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2355,7 +2364,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2372,11 +2381,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2388,14 +2397,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2405,14 +2414,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2421,14 +2430,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2438,14 +2447,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2454,14 +2463,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2471,14 +2480,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2487,14 +2496,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2504,14 +2513,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2520,14 +2529,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2537,11 +2546,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2553,14 +2562,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2570,11 +2579,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2586,14 +2595,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2610,7 +2619,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2626,7 +2635,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2636,14 +2645,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2652,14 +2661,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2669,11 +2678,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2685,14 +2694,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2702,14 +2711,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2718,14 +2727,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2742,7 +2751,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2758,7 +2767,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2768,14 +2777,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>125</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2784,14 +2793,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2801,14 +2810,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2817,14 +2826,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2834,14 +2843,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2850,14 +2859,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2867,11 +2876,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2883,7 +2892,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2900,11 +2909,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2916,14 +2925,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2933,11 +2942,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2949,14 +2958,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2966,14 +2975,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2982,14 +2991,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2999,14 +3008,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>145</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3022,7 +3031,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3055,7 +3064,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3065,14 +3074,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>151</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3088,7 +3097,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3098,11 +3107,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>31</v>
@@ -3114,14 +3123,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3131,14 +3140,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3147,28 +3156,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>31</v>
@@ -3180,14 +3189,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3197,14 +3206,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3213,28 +3222,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>31</v>
@@ -3246,14 +3255,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3263,7 +3272,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3286,7 +3295,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3296,11 +3305,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>31</v>
@@ -3312,14 +3321,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3329,14 +3338,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3345,14 +3354,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3362,14 +3371,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3378,14 +3387,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3395,11 +3404,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>31</v>
@@ -3411,14 +3420,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3428,14 +3437,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3444,14 +3453,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3461,14 +3470,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3477,14 +3486,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3494,14 +3503,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3510,14 +3519,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3527,14 +3536,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3543,14 +3552,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3560,14 +3569,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3576,14 +3585,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3593,14 +3602,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3609,14 +3618,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3626,14 +3635,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3649,7 +3658,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3659,14 +3668,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3675,14 +3684,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3692,14 +3701,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>58</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3708,14 +3717,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3725,14 +3734,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3741,7 +3750,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3758,14 +3767,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3774,14 +3783,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3791,11 +3800,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>43</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>31</v>
@@ -3807,14 +3816,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3824,14 +3833,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3840,14 +3849,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3857,14 +3866,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3873,14 +3882,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>33</v>
+        <v>214</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3890,11 +3899,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>117</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3906,14 +3915,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3923,14 +3932,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>124</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>35</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3946,7 +3955,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3956,14 +3965,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3979,24 +3988,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4005,14 +4014,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>224</v>
+        <v>28</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4022,14 +4031,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>30</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4038,28 +4047,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>31</v>
@@ -4071,14 +4080,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>119</v>
+        <v>227</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4088,14 +4097,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>232</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4104,7 +4113,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4121,14 +4130,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4137,31 +4146,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4170,14 +4179,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4187,11 +4196,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4203,31 +4212,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>243</v>
+        <v>24</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>113</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4236,14 +4245,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4253,11 +4262,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4269,14 +4278,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>24</v>
+        <v>246</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4286,14 +4295,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>120</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4302,14 +4311,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>24</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4319,11 +4328,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4335,7 +4344,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4352,11 +4361,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>140</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4368,14 +4377,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4385,11 +4394,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4401,14 +4410,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4418,14 +4427,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4434,14 +4443,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4451,14 +4460,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4467,14 +4476,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4484,11 +4493,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>142</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>31</v>
@@ -4500,7 +4509,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4517,14 +4526,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4533,7 +4542,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4550,14 +4559,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4566,14 +4575,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4583,14 +4592,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4599,14 +4608,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4620,7 +4629,7 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>117</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4639,21 +4648,21 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>49</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>50</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4665,14 +4674,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4682,14 +4691,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4705,24 +4714,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>278</v>
+        <v>24</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>49</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4731,14 +4740,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>282</v>
+        <v>65</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4748,14 +4757,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>147</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>252</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4764,14 +4773,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4781,14 +4790,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>169</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4797,14 +4806,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>24</v>
+        <v>285</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4814,14 +4823,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4830,14 +4839,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4847,14 +4856,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4863,31 +4872,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>295</v>
+        <v>24</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>114</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4896,28 +4905,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4929,14 +4938,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4946,14 +4955,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>304</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4962,14 +4971,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>24</v>
+        <v>301</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4979,14 +4988,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4995,14 +5004,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5012,11 +5021,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>193</v>
+        <v>306</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>141</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5028,7 +5037,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5045,14 +5054,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>312</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5061,14 +5070,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>24</v>
+        <v>312</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5078,14 +5087,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>197</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>314</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>309</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5094,7 +5103,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5111,14 +5120,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>315</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5127,14 +5136,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>312</v>
+        <v>24</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5144,14 +5153,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>312</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5160,14 +5169,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5177,11 +5186,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5193,14 +5202,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>20</v>
+        <v>315</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5210,14 +5219,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>15</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5226,14 +5235,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5243,14 +5252,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>141</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>309</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5266,7 +5275,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5276,14 +5285,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>34</v>
+        <v>326</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>311</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5292,14 +5301,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5309,14 +5318,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>304</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>312</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5325,14 +5334,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5342,49 +5351,115 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
+        <v>314</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
         <v>114</v>
       </c>
-      <c t="s" r="Q119" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>6953.0249999999996</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>328</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
         <v>329</v>
       </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>12</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>41</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>306</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>307</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
         <v>330</v>
       </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>80</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>41</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>120</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>7133.0249999999996</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>331</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>332</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>333</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5958,10 +6033,20 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -668,6 +668,18 @@
     <t>69.3000</t>
   </si>
   <si>
+    <t>OPLEX N PLUS 10 SUPP.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -686,9 +698,6 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>PARAGESIC 500MG 5 SUPP.</t>
   </si>
   <si>
@@ -797,6 +806,15 @@
     <t>136.5000</t>
   </si>
   <si>
+    <t>SUPRAX 100MG/5 ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>131.00</t>
+  </si>
+  <si>
+    <t>131.0000</t>
+  </si>
+  <si>
     <t>TARGOMASH 80MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -866,126 +884,129 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8501:0</t>
+    <t>8499:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>WELLINTA 150 MG 30S.R.F.C.TABS.</t>
+  </si>
+  <si>
+    <t>291.00</t>
+  </si>
+  <si>
+    <t>483.0600</t>
+  </si>
+  <si>
+    <t>ZESTRIL 20MG 10 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>28:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>80:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش فازلين 10*20 سم </t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
     <t>12.0000</t>
   </si>
   <si>
-    <t>WELLINTA 150 MG 30S.R.F.C.TABS.</t>
-  </si>
-  <si>
-    <t>291.00</t>
-  </si>
-  <si>
-    <t>483.0600</t>
-  </si>
-  <si>
-    <t>ZESTRIL 20MG 10 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>28:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>بودره نلج اكياس</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>80:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>حنه جلوري سوده 1 كيس</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش فازلين 10*20 سم </t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -1004,7 +1025,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 9:12 PM</t>
+    <t>Sunday, 27 July, 2025 9:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3955,7 +3976,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3965,11 +3986,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3981,14 +4002,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3998,11 +4019,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4014,14 +4035,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4031,14 +4052,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4047,31 +4068,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>225</v>
+        <v>28</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4080,31 +4101,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>117</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4120,7 +4141,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>31</v>
+        <v>230</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4130,14 +4151,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4153,7 +4174,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4170,7 +4191,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>235</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4179,14 +4200,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4196,14 +4217,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q84" s="12">
         <v>238</v>
-      </c>
-      <c t="s" r="Q84" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4219,13 +4240,13 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4252,13 +4273,13 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4285,7 +4306,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4295,14 +4316,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>120</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4318,7 +4339,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4328,14 +4349,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>120</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4384,7 +4405,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>24</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4394,11 +4415,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4410,14 +4431,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4427,11 +4448,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>147</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4443,14 +4464,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4460,11 +4481,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>147</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4493,14 +4514,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4509,7 +4530,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4526,14 +4547,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4542,14 +4563,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4559,11 +4580,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>157</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>31</v>
@@ -4575,7 +4596,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4592,14 +4613,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4608,7 +4629,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4625,14 +4646,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>217</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4641,14 +4662,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4658,14 +4679,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4674,14 +4695,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4691,11 +4712,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>124</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4707,28 +4728,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>49</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>50</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4740,14 +4761,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4757,14 +4778,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>147</v>
+        <v>224</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4773,31 +4794,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>281</v>
+        <v>24</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>49</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4813,7 +4834,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>285</v>
+        <v>65</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4823,14 +4844,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>147</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>255</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4839,14 +4860,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4856,14 +4877,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4872,14 +4893,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>24</v>
+        <v>291</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4896,7 +4917,7 @@
         <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4912,7 +4933,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4929,7 +4950,7 @@
         <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4945,24 +4966,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>298</v>
+        <v>24</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>121</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4978,21 +4999,21 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5004,14 +5025,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5021,14 +5042,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>307</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5037,14 +5058,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>24</v>
+        <v>307</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5054,14 +5075,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5070,14 +5091,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5087,11 +5108,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>197</v>
+        <v>312</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>148</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5103,7 +5124,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5120,14 +5141,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>315</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5136,14 +5157,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>24</v>
+        <v>318</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5153,14 +5174,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>309</v>
+        <v>197</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>317</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>312</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5169,7 +5190,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5186,14 +5207,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
         <v>320</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>321</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5202,14 +5223,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>315</v>
+        <v>24</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5219,14 +5240,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>318</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5235,14 +5256,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5252,11 +5273,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5268,14 +5289,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>20</v>
+        <v>321</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5285,14 +5306,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5301,14 +5322,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5318,14 +5339,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>148</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>312</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5334,14 +5355,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5351,14 +5372,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>34</v>
+        <v>333</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>314</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5367,14 +5388,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5384,14 +5405,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>307</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>318</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5400,14 +5421,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5417,49 +5438,115 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
+        <v>320</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>336</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>12</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>41</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>312</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>313</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>337</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>80</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>41</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>120</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
         <v>121</v>
       </c>
-      <c t="s" r="Q121" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>7133.0249999999996</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>331</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
-        <v>332</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
-        <v>333</v>
-      </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c t="s" r="Q123" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>7300.0249999999996</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>338</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>339</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>340</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6043,10 +6130,20 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -71,54 +71,60 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>115.7100</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>AMRIZOLE-N 5 VAG. SUPP</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>10.5000</t>
+  </si>
+  <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>AMRIZOLE-N 5 VAG. SUPP</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>10.50</t>
-  </si>
-  <si>
-    <t>10.5000</t>
-  </si>
-  <si>
-    <t>ANTINAL 200MG 24 CAPSULES</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -143,6 +149,18 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>ASPOCID 75MG 30 TAB.</t>
   </si>
   <si>
@@ -182,6 +200,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>CALAMYL LOTION 100 ML</t>
   </si>
   <si>
@@ -194,9 +221,6 @@
     <t>CALCITRON 30 CAPS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>144.00</t>
   </si>
   <si>
@@ -206,9 +230,6 @@
     <t>CAPOZIDE 50/25MG 30 TAB.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>CERELAC تمر وقمح ولبن</t>
   </si>
   <si>
@@ -239,9 +260,6 @@
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
@@ -410,6 +428,15 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -611,9 +638,6 @@
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>LACRITEARS EYE DROPS 15 ML</t>
   </si>
   <si>
@@ -872,13 +896,13 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>6:2</t>
+    <t>6:1</t>
   </si>
   <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
+    <t>33.6600</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -971,61 +995,64 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش فازلين 10*20 سم </t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>محلول رينجر</t>
+  </si>
+  <si>
     <t>24.0000</t>
   </si>
   <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش فازلين 10*20 سم </t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>محلول رينجر</t>
-  </si>
-  <si>
     <t>ملك العود مسك</t>
   </si>
   <si>
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 9:15 PM</t>
+    <t>Sunday, 27 July, 2025 9:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1749,7 +1776,7 @@
         <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1758,14 +1785,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1775,11 +1802,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -1791,14 +1818,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1808,14 +1835,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1824,14 +1851,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1841,14 +1868,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1857,14 +1884,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1874,14 +1901,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1890,31 +1917,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1923,14 +1950,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1940,14 +1967,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1956,14 +1983,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1973,14 +2000,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1989,14 +2016,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2006,11 +2033,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -2022,14 +2049,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2039,14 +2066,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2055,14 +2082,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2072,14 +2099,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2088,14 +2115,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2105,14 +2132,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2121,14 +2148,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2138,14 +2165,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2154,31 +2181,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2187,31 +2214,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2220,28 +2247,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2253,20 +2280,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2277,7 +2304,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2293,7 +2320,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2303,7 +2330,7 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -2326,7 +2353,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2336,14 +2363,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2352,14 +2379,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2369,14 +2396,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2385,14 +2412,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2402,14 +2429,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2425,7 +2452,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2442,7 +2469,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2458,7 +2485,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2475,7 +2502,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2491,7 +2518,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2524,7 +2551,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2541,7 +2568,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2557,7 +2584,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2567,11 +2594,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2583,14 +2610,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2600,14 +2627,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2616,14 +2643,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2633,7 +2660,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2656,7 +2683,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2666,14 +2693,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2682,14 +2709,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2699,11 +2726,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2722,7 +2749,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2732,14 +2759,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2748,14 +2775,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2765,11 +2792,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2788,7 +2815,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2805,7 +2832,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2821,7 +2848,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2831,14 +2858,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2847,14 +2874,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2864,14 +2891,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>132</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2880,14 +2907,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2897,14 +2924,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2920,7 +2947,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2930,14 +2957,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2946,14 +2973,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2963,11 +2990,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2979,14 +3006,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2996,11 +3023,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -3012,14 +3039,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3029,11 +3056,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -3045,14 +3072,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3062,14 +3089,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3078,14 +3105,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3095,14 +3122,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>151</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3118,7 +3145,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3135,7 +3162,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3151,7 +3178,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3168,7 +3195,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3184,7 +3211,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3194,14 +3221,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>31</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3210,14 +3237,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3227,14 +3254,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3243,31 +3270,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3276,14 +3303,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3293,14 +3320,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3316,7 +3343,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3333,7 +3360,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3349,24 +3376,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3375,14 +3402,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3392,14 +3419,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3408,14 +3435,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3425,14 +3452,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3441,14 +3468,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3458,14 +3485,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3481,7 +3508,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3498,7 +3525,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3514,7 +3541,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3528,10 +3555,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3540,14 +3567,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3557,14 +3584,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3573,14 +3600,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3590,14 +3617,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3606,14 +3633,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3623,14 +3650,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3646,7 +3673,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3663,7 +3690,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3679,7 +3706,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3693,10 +3720,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3705,14 +3732,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3722,14 +3749,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3738,14 +3765,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3755,14 +3782,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>140</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3771,14 +3798,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3788,14 +3815,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3804,14 +3831,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3821,14 +3848,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>67</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3837,14 +3864,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3854,14 +3881,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3870,14 +3897,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3887,14 +3914,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3910,7 +3937,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3920,14 +3947,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3943,7 +3970,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3953,14 +3980,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3969,14 +3996,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3986,14 +4013,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4002,14 +4029,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>33</v>
+        <v>222</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4019,11 +4046,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>124</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4035,14 +4062,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4052,14 +4079,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>131</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>35</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4068,14 +4095,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4085,14 +4112,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4101,31 +4128,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>117</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4134,14 +4161,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>230</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4151,11 +4178,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>137</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4167,14 +4194,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4184,14 +4211,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4200,31 +4227,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>126</v>
+        <v>228</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>123</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>238</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4233,14 +4260,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>31</v>
+        <v>238</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4250,11 +4277,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4266,31 +4293,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4299,14 +4326,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4316,14 +4343,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4332,14 +4359,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4349,14 +4376,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>120</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4365,28 +4392,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4398,14 +4425,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4415,11 +4442,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4431,14 +4458,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4448,14 +4475,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>126</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4464,14 +4491,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4481,11 +4508,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>147</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4504,7 +4531,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4537,7 +4564,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>266</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4547,11 +4574,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4563,14 +4590,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4580,14 +4607,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4603,7 +4630,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4620,7 +4647,7 @@
         <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4636,7 +4663,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4650,10 +4677,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>157</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4662,14 +4689,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4679,14 +4706,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>151</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4702,7 +4729,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4712,14 +4739,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>217</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4728,14 +4755,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4745,14 +4772,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>272</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4761,14 +4788,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4778,14 +4805,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>224</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>124</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4794,28 +4821,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>49</v>
+        <v>225</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>50</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4827,14 +4854,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4844,14 +4871,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>147</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4860,14 +4887,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>287</v>
+        <v>34</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4877,14 +4904,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>232</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4893,31 +4920,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>55</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4926,14 +4953,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>220</v>
+        <v>49</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4943,14 +4970,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>156</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>76</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4959,14 +4986,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>24</v>
+        <v>295</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4976,14 +5003,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4992,14 +5019,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>45</v>
+        <v>299</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5009,14 +5036,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>86</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5025,28 +5052,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>304</v>
+        <v>228</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>121</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -5058,28 +5085,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>307</v>
+        <v>25</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5091,28 +5118,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>311</v>
+        <v>51</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5124,31 +5151,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>24</v>
+        <v>312</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>316</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5157,28 +5184,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>197</v>
+        <v>316</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>148</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5190,31 +5217,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>24</v>
+        <v>319</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>321</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5230,24 +5257,24 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>318</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5256,28 +5283,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>24</v>
+        <v>326</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>325</v>
+        <v>206</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>326</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5296,24 +5323,24 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>321</v>
+        <v>25</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>316</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>328</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5329,24 +5356,24 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>326</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5355,31 +5382,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>15</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5395,24 +5422,24 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>24</v>
+        <v>335</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>148</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>318</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5421,28 +5448,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>34</v>
+        <v>338</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5454,31 +5481,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>313</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5487,66 +5514,165 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>120</v>
+        <v>313</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>12</v>
+        <v>326</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>7300.0249999999996</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
-        <v>338</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
-        <v>339</v>
-      </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
-        <v>340</v>
-      </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>343</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>12</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>43</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>35</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>344</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>345</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>12</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>43</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>320</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>321</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>346</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>86</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>43</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>126</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>7499.3950000000004</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>347</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>348</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>349</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6140,10 +6266,25 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -617,6 +617,15 @@
     <t>39.1050</t>
   </si>
   <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>244.0000</t>
+  </si>
+  <si>
     <t>IROSPECT 20 PIECES</t>
   </si>
   <si>
@@ -791,9 +800,6 @@
     <t>SINEMET 25/250 MG 20 TABS.</t>
   </si>
   <si>
-    <t>122.00</t>
-  </si>
-  <si>
     <t>122.0000</t>
   </si>
   <si>
@@ -983,52 +989,55 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t>حنه جلوري سوده 1 كيس</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">شاش فازلين 10*20 سم </t>
   </si>
   <si>
     <t>12.00</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>شامبو دوف 200مل</t>
   </si>
   <si>
     <t>صوفي طويل جدا</t>
@@ -1040,19 +1049,31 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t xml:space="preserve">كريم شعر دابر املا </t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
     <t>24.0000</t>
   </si>
   <si>
+    <t>مخمريه العود الملكي</t>
+  </si>
+  <si>
     <t>ملك العود مسك</t>
   </si>
   <si>
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 9:27 PM</t>
+    <t>Sunday, 27 July, 2025 9:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3739,7 +3760,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3756,7 +3777,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3772,7 +3793,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3789,7 +3810,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3805,7 +3826,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3815,11 +3836,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>84</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>37</v>
@@ -3831,14 +3852,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3848,14 +3869,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3864,7 +3885,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3881,11 +3902,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3897,14 +3918,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3914,14 +3935,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3930,14 +3951,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3947,14 +3968,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3970,7 +3991,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3980,11 +4001,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>32</v>
@@ -3996,14 +4017,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>219</v>
+        <v>49</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4013,11 +4034,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>32</v>
@@ -4046,14 +4067,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4069,7 +4090,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4079,14 +4100,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4102,7 +4123,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4112,14 +4133,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4128,14 +4149,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>34</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4149,7 +4170,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4161,14 +4182,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4178,11 +4199,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4194,14 +4215,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4211,14 +4232,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4227,31 +4248,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>228</v>
+        <v>29</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>62</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4260,31 +4281,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>123</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4300,7 +4321,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4310,14 +4331,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4333,7 +4354,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4350,7 +4371,7 @@
         <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>246</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4359,14 +4380,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4376,14 +4397,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>248</v>
+      </c>
+      <c t="s" r="Q88" s="12">
         <v>249</v>
-      </c>
-      <c t="s" r="Q88" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4399,13 +4420,13 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4432,13 +4453,13 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4465,7 +4486,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4475,14 +4496,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>126</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4498,7 +4519,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>25</v>
+        <v>260</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4508,14 +4529,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>126</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4541,11 +4562,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4557,14 +4578,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>266</v>
+        <v>25</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4574,11 +4595,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4590,14 +4611,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>25</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4607,11 +4628,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4623,14 +4644,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4640,11 +4661,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>156</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4656,14 +4677,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4673,11 +4694,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4689,14 +4710,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4706,14 +4727,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>151</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4729,7 +4750,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4739,11 +4760,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>151</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>32</v>
@@ -4755,14 +4776,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4772,11 +4793,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>166</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>32</v>
@@ -4795,7 +4816,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4809,10 +4830,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4821,14 +4842,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4838,14 +4859,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>225</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4861,7 +4882,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4871,11 +4892,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>228</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4894,7 +4915,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4904,11 +4925,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4920,28 +4941,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>55</v>
+        <v>235</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4953,31 +4974,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>156</v>
+        <v>55</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4993,7 +5014,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>295</v>
+        <v>49</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5003,14 +5024,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>156</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5019,14 +5040,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5036,14 +5057,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>86</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5052,14 +5073,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>228</v>
+        <v>301</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5069,14 +5090,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5085,14 +5106,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5102,14 +5123,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5118,14 +5139,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5135,11 +5156,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5151,31 +5172,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>312</v>
+        <v>51</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>127</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5184,14 +5205,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5201,14 +5222,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>317</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5217,14 +5238,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5234,11 +5255,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5250,14 +5271,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5267,14 +5288,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5283,14 +5304,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>326</v>
+        <v>25</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5300,14 +5321,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>206</v>
+        <v>325</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>157</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5323,7 +5344,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>25</v>
+        <v>328</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5333,14 +5354,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>300</v>
+        <v>209</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>328</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5366,14 +5387,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q118" s="12">
         <v>330</v>
-      </c>
-      <c t="s" r="Q118" s="12">
-        <v>326</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5399,14 +5420,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>328</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5415,14 +5436,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>335</v>
+        <v>25</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5432,11 +5453,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5448,14 +5469,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>34</v>
+        <v>337</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5488,7 +5509,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5502,10 +5523,10 @@
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>15</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5531,14 +5552,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>313</v>
+        <v>156</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>326</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5554,7 +5575,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5564,14 +5585,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>35</v>
+        <v>344</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>344</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5587,7 +5608,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5597,14 +5618,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>321</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>12</v>
+        <v>328</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5620,7 +5641,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5630,49 +5651,181 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>126</v>
+        <v>347</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
+        <v>348</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>349</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>12</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>43</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>35</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>350</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>351</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>12</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>43</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>94</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>352</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>12</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>43</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>322</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>323</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>353</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>86</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>43</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>126</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
         <v>127</v>
       </c>
-      <c t="s" r="Q126" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>7499.3950000000004</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>347</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>348</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
-        <v>349</v>
-      </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c t="s" r="Q130" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>7954.3950000000004</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>354</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>355</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>356</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6281,10 +6434,30 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AGIOLAX 12 GRANULES IN SACHETS</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>100.00</t>
   </si>
   <si>
@@ -653,6 +665,18 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>LUTOFOLONE 2 AMP.</t>
   </si>
   <si>
@@ -794,9 +818,6 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>SINEMET 25/250 MG 20 TABS.</t>
   </si>
   <si>
@@ -956,9 +977,6 @@
     <t>28:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>بودره نلج اكياس</t>
   </si>
   <si>
@@ -989,9 +1007,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
@@ -1073,7 +1088,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 9:39 PM</t>
+    <t>Sunday, 27 July, 2025 9:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1731,7 +1746,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1740,14 +1755,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1757,14 +1772,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1773,14 +1788,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1797,7 +1812,7 @@
         <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1806,14 +1821,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1823,14 +1838,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>27</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1863,7 +1878,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1872,14 +1887,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1889,14 +1904,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>36</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1905,14 +1920,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1922,14 +1937,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>41</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1945,13 +1960,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1962,7 +1977,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1978,24 +1993,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2011,7 +2026,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2021,14 +2036,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>53</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2044,7 +2059,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2054,14 +2069,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2070,14 +2085,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2087,14 +2102,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2103,14 +2118,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2120,14 +2135,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2136,14 +2151,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2153,14 +2168,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2169,14 +2184,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2186,14 +2201,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2202,14 +2217,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2219,14 +2234,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2235,14 +2250,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2252,14 +2267,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2268,31 +2283,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2301,31 +2316,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2334,31 +2349,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2367,14 +2382,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2384,14 +2399,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2400,14 +2415,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2417,14 +2432,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2433,14 +2448,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2450,14 +2465,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2466,14 +2481,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2483,14 +2498,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2499,14 +2514,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2516,14 +2531,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2532,14 +2547,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2549,14 +2564,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2565,14 +2580,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2582,14 +2597,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2598,14 +2613,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2615,14 +2630,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2631,14 +2646,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2648,14 +2663,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2664,14 +2679,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2681,14 +2696,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2697,14 +2712,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2714,14 +2729,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2730,14 +2745,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2747,14 +2762,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2763,14 +2778,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2787,7 +2802,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2803,7 +2818,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2813,14 +2828,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2829,14 +2844,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2846,14 +2861,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2862,14 +2877,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2879,14 +2894,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2895,14 +2910,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2912,14 +2927,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2928,14 +2943,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2952,7 +2967,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2982,10 +2997,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>138</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3001,7 +3016,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3011,14 +3026,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3027,14 +3042,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3044,14 +3059,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3060,14 +3075,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3077,14 +3092,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3093,14 +3108,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3110,14 +3125,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3126,14 +3141,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3143,14 +3158,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3159,14 +3174,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3176,14 +3191,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3192,14 +3207,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3209,14 +3224,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3225,14 +3240,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3242,14 +3257,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>160</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3258,14 +3273,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3275,14 +3290,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>32</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3291,14 +3306,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3308,14 +3323,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3324,14 +3339,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3341,14 +3356,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3357,14 +3372,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3374,14 +3389,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3390,31 +3405,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3423,31 +3438,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3456,14 +3471,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3473,14 +3488,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3489,14 +3504,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3506,14 +3521,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3522,14 +3537,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3539,14 +3554,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3555,14 +3570,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3572,14 +3587,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3588,14 +3603,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3605,14 +3620,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3621,14 +3636,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3638,14 +3653,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3654,14 +3669,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3671,14 +3686,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3687,14 +3702,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3704,14 +3719,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3720,14 +3735,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3737,14 +3752,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3753,14 +3768,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3770,14 +3785,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3786,14 +3801,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3803,14 +3818,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3819,14 +3834,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3836,14 +3851,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3852,14 +3867,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3869,14 +3884,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3885,14 +3900,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3902,14 +3917,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3918,14 +3933,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3935,14 +3950,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3951,31 +3966,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>49</v>
+        <v>219</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>83</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>71</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3984,14 +3999,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4001,14 +4016,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>152</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4017,14 +4032,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4034,14 +4049,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4050,14 +4065,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4067,14 +4082,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4083,14 +4098,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>53</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4100,14 +4115,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4116,14 +4131,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4133,14 +4148,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4149,14 +4164,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4166,14 +4181,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4182,14 +4197,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4199,14 +4214,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>130</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4215,14 +4230,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>25</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4232,14 +4247,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>36</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4248,14 +4263,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4265,14 +4280,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4281,31 +4296,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4314,14 +4329,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>241</v>
+        <v>33</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4331,14 +4346,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4347,31 +4362,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>127</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4380,14 +4395,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>132</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4397,14 +4412,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>249</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4413,14 +4428,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4430,14 +4445,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4446,31 +4461,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4479,14 +4494,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4496,14 +4511,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4512,31 +4527,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>260</v>
+        <v>29</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>126</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4545,14 +4560,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4562,14 +4577,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4578,14 +4593,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>25</v>
+        <v>268</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4595,14 +4610,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>130</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4611,14 +4626,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>29</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4628,14 +4643,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4651,7 +4666,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4661,14 +4676,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>156</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4677,14 +4692,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>23</v>
+        <v>275</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4694,14 +4709,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4710,14 +4725,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4727,14 +4742,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4743,14 +4758,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4760,14 +4775,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4776,14 +4791,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4793,14 +4808,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4809,14 +4824,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4826,14 +4841,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>155</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>166</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4842,14 +4857,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4859,14 +4874,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4875,14 +4890,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4892,14 +4907,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4908,14 +4923,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4925,14 +4940,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4941,14 +4956,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4958,14 +4973,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>130</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4974,31 +4989,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>55</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>56</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5007,14 +5022,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5024,14 +5039,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>156</v>
+        <v>243</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5040,31 +5055,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>297</v>
+        <v>29</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>298</v>
+        <v>59</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5073,14 +5088,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>301</v>
+        <v>53</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5090,14 +5105,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>160</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>86</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5106,14 +5121,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>231</v>
+        <v>304</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5130,7 +5145,7 @@
         <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5146,7 +5161,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>25</v>
+        <v>308</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5156,14 +5171,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5172,14 +5187,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>51</v>
+        <v>239</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5189,14 +5204,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5205,20 +5220,20 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>314</v>
+        <v>29</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
@@ -5226,10 +5241,10 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>127</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5238,20 +5253,20 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>317</v>
+        <v>55</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
@@ -5262,7 +5277,7 @@
         <v>319</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5284,18 +5299,18 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>322</v>
+        <v>14</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>323</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5304,31 +5319,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>25</v>
+        <v>323</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5337,31 +5352,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>209</v>
+        <v>328</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>157</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5370,31 +5385,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>31</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>330</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5403,31 +5418,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>25</v>
+        <v>333</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>325</v>
+        <v>213</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>332</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>328</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5436,31 +5451,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q120" s="12">
         <v>335</v>
-      </c>
-      <c t="s" r="Q120" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5476,24 +5491,24 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>337</v>
+        <v>29</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>12</v>
+        <v>333</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5502,31 +5517,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5535,31 +5550,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>25</v>
+        <v>342</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>156</v>
+        <v>343</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>210</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5568,31 +5583,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5601,31 +5616,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>315</v>
+        <v>160</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>328</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5634,31 +5649,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>348</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5667,31 +5682,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>350</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>12</v>
+        <v>333</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5707,24 +5722,24 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>94</v>
+        <v>352</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>95</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5733,31 +5748,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>322</v>
+        <v>39</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5766,66 +5781,132 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>7954.3950000000004</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>354</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
-        <v>355</v>
-      </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
-        <v>356</v>
-      </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>357</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>16</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>47</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>328</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>329</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>358</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>90</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>47</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>130</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>7981.3950000000004</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>359</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>360</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>361</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6454,10 +6535,20 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -545,6 +545,15 @@
     <t>89.6000</t>
   </si>
   <si>
+    <t>FULPRAZAL 40 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -692,6 +701,15 @@
     <t>56.7600</t>
   </si>
   <si>
+    <t>MOVENTOR 20 TABS.</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>195.0000</t>
+  </si>
+  <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
@@ -953,6 +971,12 @@
     <t>483.0600</t>
   </si>
   <si>
+    <t>ZANDROS 20 CAPS</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
     <t>ZESTRIL 20MG 10 TAB</t>
   </si>
   <si>
@@ -1088,7 +1112,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 9:51 PM</t>
+    <t>Sunday, 27 July, 2025 9:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3478,7 +3502,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3495,7 +3519,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3511,7 +3535,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3528,7 +3552,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3554,14 +3578,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3570,14 +3594,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3587,14 +3611,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3610,7 +3634,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3643,7 +3667,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3660,7 +3684,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3676,7 +3700,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3693,7 +3717,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3709,7 +3733,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3723,10 +3747,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3735,14 +3759,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3752,11 +3776,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3775,7 +3799,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3792,7 +3816,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3808,7 +3832,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3825,7 +3849,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3841,7 +3865,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3858,7 +3882,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3874,7 +3898,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3891,7 +3915,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3907,7 +3931,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3917,11 +3941,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>88</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>41</v>
@@ -3933,14 +3957,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3950,14 +3974,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3966,31 +3990,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>71</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3999,31 +4023,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4032,14 +4056,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4049,14 +4073,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4065,14 +4089,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4082,14 +4106,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>87</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4105,7 +4129,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4115,11 +4139,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>157</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>36</v>
@@ -4131,14 +4155,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>36</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4152,7 +4176,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>49</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>36</v>
@@ -4164,14 +4188,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>53</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4181,14 +4205,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4204,7 +4228,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4214,14 +4238,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4247,11 +4271,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4263,14 +4287,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4280,14 +4304,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4303,7 +4327,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>29</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4313,11 +4337,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>141</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4329,14 +4353,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4346,14 +4370,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4362,31 +4386,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>239</v>
+        <v>29</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4395,14 +4419,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>33</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4412,14 +4436,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>35</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4428,28 +4452,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>36</v>
+        <v>245</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>127</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>36</v>
@@ -4468,7 +4492,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>136</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4478,14 +4502,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>257</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4494,7 +4518,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4511,14 +4535,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4527,31 +4551,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>262</v>
+      </c>
+      <c t="s" r="Q92" s="12">
         <v>263</v>
-      </c>
-      <c t="s" r="Q92" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4567,7 +4591,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4600,24 +4624,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>268</v>
+        <v>29</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>130</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4626,14 +4650,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4643,11 +4667,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4659,14 +4683,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>29</v>
+        <v>274</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4676,14 +4700,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>130</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4692,14 +4716,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>275</v>
+        <v>29</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4709,11 +4733,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>210</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4725,7 +4749,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4742,11 +4766,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>160</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>214</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4758,14 +4782,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>27</v>
+        <v>281</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4775,11 +4799,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4791,14 +4815,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4808,11 +4832,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>160</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4841,14 +4865,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>155</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4857,7 +4881,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4874,14 +4898,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4890,14 +4914,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4907,11 +4931,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>155</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>170</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>36</v>
@@ -4923,7 +4947,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4940,14 +4964,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4956,7 +4980,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4973,14 +4997,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4989,14 +5013,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5006,14 +5030,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5022,14 +5046,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5039,11 +5063,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>134</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5055,28 +5079,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>59</v>
+        <v>304</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>60</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5088,14 +5112,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5105,14 +5129,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>160</v>
+        <v>249</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5121,31 +5145,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>304</v>
+        <v>29</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>305</v>
+        <v>59</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5161,7 +5185,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>308</v>
+        <v>53</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5171,14 +5195,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>160</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5187,14 +5211,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>239</v>
+        <v>310</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5204,14 +5228,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5220,14 +5244,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>29</v>
+        <v>314</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5244,7 +5268,7 @@
         <v>316</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5260,7 +5284,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>55</v>
+        <v>245</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5277,7 +5301,7 @@
         <v>319</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5293,24 +5317,24 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>321</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>14</v>
+        <v>321</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5326,21 +5350,21 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>323</v>
+        <v>29</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5352,28 +5376,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>327</v>
+        <v>55</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5385,14 +5409,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>29</v>
+        <v>329</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5402,14 +5426,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>331</v>
+        <v>14</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>221</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5418,14 +5442,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5435,11 +5459,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>213</v>
+        <v>332</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>161</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5458,7 +5482,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>29</v>
+        <v>335</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5468,14 +5492,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>35</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>335</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5484,7 +5508,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5501,14 +5525,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>337</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>333</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5517,14 +5541,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>29</v>
+        <v>341</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5534,11 +5558,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>339</v>
+        <v>216</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>340</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5550,14 +5574,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>342</v>
+        <v>29</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5567,14 +5591,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>344</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>343</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5583,14 +5607,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5600,14 +5624,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>221</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>341</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5616,7 +5640,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5633,11 +5657,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>160</v>
+        <v>347</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>214</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5649,14 +5673,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5666,14 +5690,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>19</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5682,14 +5706,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5699,14 +5723,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>14</v>
+        <v>354</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>333</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5715,14 +5739,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5732,11 +5756,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>352</v>
+        <v>160</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>353</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5748,14 +5772,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5765,14 +5789,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>39</v>
+        <v>357</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>355</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5781,14 +5805,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5798,14 +5822,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>341</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5814,14 +5838,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5831,11 +5855,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5847,14 +5871,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5864,49 +5888,148 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
+        <v>363</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>364</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>16</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>47</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>98</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>365</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>16</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>47</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>336</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>337</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>366</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>90</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>47</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>130</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
         <v>131</v>
       </c>
-      <c t="s" r="Q132" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>7981.3950000000004</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
-        <v>359</v>
-      </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
-        <v>360</v>
-      </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
-        <v>361</v>
-      </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c t="s" r="Q135" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>8295.3950000000004</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>367</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>368</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>369</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6545,10 +6668,25 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -107,6 +107,18 @@
     <t>10.5000</t>
   </si>
   <si>
+    <t>ANALLERGE 4 MG 60 TAB.</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>9.9000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
@@ -119,9 +131,6 @@
     <t>26.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -399,9 +408,6 @@
   </si>
   <si>
     <t>DIASTOP SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
   </si>
   <si>
     <t>30.0000</t>
@@ -1918,7 +1924,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1928,14 +1934,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>35</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1944,14 +1950,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1961,14 +1967,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1977,14 +1983,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1994,14 +2000,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -2010,31 +2016,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2043,7 +2049,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -2056,7 +2062,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -2067,7 +2073,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2076,14 +2082,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2093,14 +2099,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2109,14 +2115,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2133,7 +2139,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2149,7 +2155,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2182,7 +2188,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2199,7 +2205,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2215,7 +2221,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2232,7 +2238,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2248,7 +2254,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2265,7 +2271,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2281,7 +2287,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2298,7 +2304,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2314,7 +2320,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2324,14 +2330,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2340,31 +2346,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2380,13 +2386,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2397,7 +2403,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2413,13 +2419,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2430,7 +2436,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2446,7 +2452,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2479,7 +2485,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2489,7 +2495,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2512,7 +2518,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2522,14 +2528,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2538,14 +2544,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2555,14 +2561,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2578,7 +2584,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2595,7 +2601,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2644,7 +2650,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2661,7 +2667,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2677,7 +2683,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2694,7 +2700,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2710,7 +2716,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2727,7 +2733,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2743,7 +2749,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2753,14 +2759,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2769,14 +2775,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2786,7 +2792,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2809,7 +2815,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2842,7 +2848,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2852,14 +2858,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2868,14 +2874,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2889,10 +2895,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2901,14 +2907,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2918,11 +2924,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2941,7 +2947,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2974,7 +2980,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2984,14 +2990,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3000,14 +3006,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3017,14 +3023,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3033,14 +3039,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3050,14 +3056,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>142</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3066,14 +3072,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3083,14 +3089,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3099,7 +3105,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3116,7 +3122,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -3139,7 +3145,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3149,11 +3155,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3165,14 +3171,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3182,11 +3188,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3198,14 +3204,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3215,11 +3221,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3238,7 +3244,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3252,7 +3258,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3264,14 +3270,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3281,14 +3287,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3297,14 +3303,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3314,14 +3320,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>164</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3330,14 +3336,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3347,14 +3353,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>36</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3363,7 +3369,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3380,14 +3386,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3396,14 +3402,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3413,14 +3419,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3429,14 +3435,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3446,14 +3452,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3462,31 +3468,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3495,31 +3501,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3528,14 +3534,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3545,14 +3551,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3561,14 +3567,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3578,14 +3584,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3594,7 +3600,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3611,14 +3617,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3634,7 +3640,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3644,14 +3650,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3660,14 +3666,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3677,14 +3683,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3693,14 +3699,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3710,14 +3716,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3726,14 +3732,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3743,14 +3749,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3759,14 +3765,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3776,14 +3782,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3799,7 +3805,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3813,7 +3819,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3825,14 +3831,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3842,14 +3848,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3858,14 +3864,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3875,14 +3881,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3891,14 +3897,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3908,14 +3914,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3924,14 +3930,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3941,14 +3947,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3957,7 +3963,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3974,14 +3980,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>88</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3990,14 +3996,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4007,14 +4013,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4030,24 +4036,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>222</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4056,31 +4062,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>152</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>153</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4089,14 +4095,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4106,14 +4112,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4122,14 +4128,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4139,14 +4145,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>90</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4155,14 +4161,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4172,14 +4178,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4188,14 +4194,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4205,14 +4211,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4228,7 +4234,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>56</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4238,14 +4244,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>49</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4254,14 +4260,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4271,14 +4277,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4287,14 +4293,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4304,14 +4310,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4320,14 +4326,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4337,14 +4343,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4353,14 +4359,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>38</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4370,11 +4376,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4393,7 +4399,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4403,11 +4409,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>141</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4419,14 +4425,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4436,14 +4442,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4459,24 +4465,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>245</v>
+        <v>37</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4485,31 +4491,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>130</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q90" s="12">
         <v>35</v>
-      </c>
-      <c t="s" r="Q90" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4518,14 +4524,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>36</v>
+        <v>257</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4539,10 +4545,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4551,14 +4557,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4568,14 +4574,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>263</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4584,14 +4590,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4601,14 +4607,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>265</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4617,28 +4623,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4650,28 +4656,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4683,14 +4689,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>274</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4700,14 +4706,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>130</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>15</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4723,7 +4729,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>29</v>
+        <v>276</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4733,14 +4739,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>210</v>
+        <v>33</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4766,11 +4772,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>212</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4782,14 +4788,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>281</v>
+        <v>29</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4799,11 +4805,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4815,14 +4821,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>29</v>
+        <v>283</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4832,11 +4838,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>160</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4848,14 +4854,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4865,11 +4871,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>162</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4881,14 +4887,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4898,11 +4904,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4914,14 +4920,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4931,14 +4937,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>155</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4954,7 +4960,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4964,14 +4970,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>294</v>
+        <v>157</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4980,14 +4986,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4997,14 +5003,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>170</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5020,7 +5026,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5034,10 +5040,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>300</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5046,14 +5052,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5063,14 +5069,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>242</v>
+        <v>301</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>302</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5086,7 +5092,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5096,11 +5102,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>304</v>
+        <v>244</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5119,7 +5125,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5129,11 +5135,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>249</v>
+        <v>306</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>134</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5145,28 +5151,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>59</v>
+        <v>251</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5178,31 +5184,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5218,7 +5224,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>310</v>
+        <v>56</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5228,14 +5234,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>311</v>
+        <v>162</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5244,14 +5250,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5261,14 +5267,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5277,14 +5283,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5294,14 +5300,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>24</v>
+        <v>93</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5310,14 +5316,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5327,14 +5333,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5350,7 +5356,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5364,10 +5370,10 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>324</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5376,14 +5382,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5393,11 +5399,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5409,31 +5415,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>329</v>
+        <v>58</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>14</v>
+        <v>328</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>131</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5455,18 +5461,18 @@
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>332</v>
+        <v>14</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>333</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5475,28 +5481,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5508,31 +5514,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>29</v>
+        <v>337</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>224</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5548,24 +5554,24 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>341</v>
+        <v>29</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>216</v>
+        <v>341</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5581,24 +5587,24 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>29</v>
+        <v>343</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>315</v>
+        <v>218</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>343</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5620,18 +5626,18 @@
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q124" s="12">
         <v>345</v>
-      </c>
-      <c t="s" r="Q124" s="12">
-        <v>341</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5653,18 +5659,18 @@
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>343</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5673,28 +5679,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>350</v>
+        <v>29</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5706,28 +5712,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>38</v>
+        <v>352</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>224</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5746,21 +5752,21 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>160</v>
+        <v>356</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5772,31 +5778,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>357</v>
+        <v>162</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5812,24 +5818,24 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>14</v>
+        <v>359</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>341</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5838,31 +5844,31 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>360</v>
+        <v>14</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>361</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>343</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5871,24 +5877,24 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>39</v>
+        <v>362</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
@@ -5917,15 +5923,15 @@
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>99</v>
+        <v>365</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5937,7 +5943,7 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -5950,15 +5956,15 @@
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>336</v>
+        <v>101</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>337</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5970,66 +5976,99 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>130</v>
+        <v>338</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>131</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>8295.3950000000004</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
-        <v>367</v>
-      </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
         <v>368</v>
       </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>93</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>50</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>33</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="P137" s="13">
+        <v>8305.2950000000001</v>
+      </c>
+      <c r="Q137" s="13"/>
+    </row>
+    <row r="138" ht="16.5" customHeight="1">
+      <c t="s" r="A138" s="14">
         <v>369</v>
       </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c t="s" r="G138" s="15">
+        <v>370</v>
+      </c>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+      <c t="s" r="K138" s="17">
+        <v>371</v>
+      </c>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17"/>
+      <c r="P138" s="17"/>
+      <c r="Q138" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="662">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6683,10 +6722,15 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="K138:Q138"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-27_00-00.xlsx
+++ b/DaySale_2025-07-27_00-00.xlsx
@@ -674,6 +674,9 @@
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>LACRITEARS EYE DROPS 15 ML</t>
   </si>
   <si>
@@ -827,6 +830,15 @@
     <t>175.0000</t>
   </si>
   <si>
+    <t>RICHI PANTHENOL ADVANCE GEL</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>SANSOVIT PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -1040,9 +1052,6 @@
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -1118,7 +1127,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 27 July, 2025 9:54 PM</t>
+    <t>Sunday, 27 July, 2025 10:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4003,7 +4012,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4017,10 +4026,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>44</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4029,7 +4038,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4050,7 +4059,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4062,14 +4071,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4079,11 +4088,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>35</v>
@@ -4095,7 +4104,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4128,7 +4137,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4161,7 +4170,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4178,11 +4187,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>35</v>
@@ -4194,7 +4203,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4211,11 +4220,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>35</v>
@@ -4227,7 +4236,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4248,7 +4257,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>35</v>
@@ -4260,14 +4269,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4277,7 +4286,7 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -4293,14 +4302,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4314,7 +4323,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4326,7 +4335,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4343,11 +4352,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>56</v>
@@ -4359,14 +4368,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4376,11 +4385,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4392,7 +4401,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4409,7 +4418,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4425,7 +4434,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4458,7 +4467,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4479,7 +4488,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>56</v>
@@ -4491,14 +4500,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4524,14 +4533,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4541,7 +4550,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4557,7 +4566,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4574,11 +4583,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>35</v>
@@ -4590,7 +4599,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4607,14 +4616,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4623,7 +4632,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4640,11 +4649,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4656,7 +4665,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4673,11 +4682,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4689,28 +4698,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4722,14 +4731,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>276</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4739,14 +4748,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>33</v>
+        <v>277</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>15</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4755,14 +4764,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>29</v>
+        <v>280</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4772,14 +4781,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>212</v>
+        <v>33</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4788,7 +4797,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4805,11 +4814,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>212</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4821,14 +4830,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>283</v>
+        <v>29</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4861,7 +4870,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>29</v>
+        <v>287</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4871,11 +4880,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>162</v>
+        <v>288</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>219</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4887,14 +4896,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4904,11 +4913,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>162</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4920,14 +4929,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4937,11 +4946,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4953,14 +4962,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4970,14 +4979,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>157</v>
+        <v>295</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4986,14 +4995,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5003,11 +5012,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>296</v>
+        <v>157</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>35</v>
@@ -5019,14 +5028,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5036,11 +5045,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>172</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>35</v>
@@ -5052,14 +5061,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5069,14 +5078,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>302</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5085,14 +5094,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5102,14 +5111,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5118,14 +5127,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5135,11 +5144,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>306</v>
+        <v>245</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5151,14 +5160,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5168,11 +5177,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>136</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5184,28 +5193,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5217,31 +5226,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>310</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5250,14 +5259,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>312</v>
+        <v>56</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5267,14 +5276,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>313</v>
+        <v>162</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
         <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5307,7 +5316,7 @@
         <v>318</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>93</v>
+        <v>56</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5323,7 +5332,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>247</v>
+        <v>320</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5333,14 +5342,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>24</v>
+        <v>93</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5349,14 +5358,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5366,14 +5375,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>82</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5382,14 +5391,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D117" s="8"/>
    